--- a/user-data/university-college-enrolment/university-college-enrolment.xlsx
+++ b/user-data/university-college-enrolment/university-college-enrolment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1745,42 +1742,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
@@ -1796,11 +1793,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/university-college-enrolment/university-college-enrolment.xlsx
+++ b/user-data/university-college-enrolment/university-college-enrolment.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1367,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1767,7 +1771,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
@@ -1777,22 +1781,32 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -55658,4 +55672,8000 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>1.27942</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.29312</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="n">
+        <v>3.9114</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2" t="n">
+        <v>3.74394</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.76232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.01383</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.73868</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.81263</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20.00498</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24.52325</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28.78627</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.79338</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.32131</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33.1062</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43.56153</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47.74272</v>
+      </c>
+      <c r="O3" t="n">
+        <v>55.50096</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="n">
+        <v>15.24848</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.74901</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.18056</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.76258</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.21485</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.28536</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="n">
+        <v>28.59671</v>
+      </c>
+      <c r="M4" t="n">
+        <v>28.75825</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30.27547</v>
+      </c>
+      <c r="O4" t="n">
+        <v>31.46411</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="n">
+        <v>0.86361</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.19307</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.39667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.96268</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.89827</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>7.49504</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="n">
+        <v>14.81005</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16.23196</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14.36836</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23.48624</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53.0705</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58.27672</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.22986</v>
+      </c>
+      <c r="F9" t="n">
+        <v>64.86005</v>
+      </c>
+      <c r="G9" t="n">
+        <v>65.35837</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.98481</v>
+      </c>
+      <c r="I9" t="n">
+        <v>67.09057</v>
+      </c>
+      <c r="J9" t="n">
+        <v>66.72804</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68.6869</v>
+      </c>
+      <c r="L9" t="n">
+        <v>71.25094</v>
+      </c>
+      <c r="M9" t="n">
+        <v>74.82966</v>
+      </c>
+      <c r="N9" t="n">
+        <v>78.62611</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.85656</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.81435</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.23941</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.20652</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36.80103</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38.36914</v>
+      </c>
+      <c r="I10" t="n">
+        <v>41.76502</v>
+      </c>
+      <c r="J10" t="n">
+        <v>44.32213</v>
+      </c>
+      <c r="K10" t="n">
+        <v>46.58058</v>
+      </c>
+      <c r="L10" t="n">
+        <v>49.11955</v>
+      </c>
+      <c r="M10" t="n">
+        <v>50.62447</v>
+      </c>
+      <c r="N10" t="n">
+        <v>51.00142</v>
+      </c>
+      <c r="O10" t="n">
+        <v>46.04359</v>
+      </c>
+      <c r="P10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.65608</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.05586</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26.69797</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.75628</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.30441</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.68347</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.90319</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33.92613</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.24049</v>
+      </c>
+      <c r="L11" t="n">
+        <v>35.36232</v>
+      </c>
+      <c r="M11" t="n">
+        <v>37.35172</v>
+      </c>
+      <c r="N11" t="n">
+        <v>38.73762</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.76113</v>
+      </c>
+      <c r="P11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65.02531</v>
+      </c>
+      <c r="D12" t="n">
+        <v>65.19178</v>
+      </c>
+      <c r="E12" t="n">
+        <v>74.02367</v>
+      </c>
+      <c r="F12" t="n">
+        <v>71.98739</v>
+      </c>
+      <c r="G12" t="n">
+        <v>70.53541</v>
+      </c>
+      <c r="H12" t="n">
+        <v>71.24206</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70.464</v>
+      </c>
+      <c r="J12" t="n">
+        <v>71.45716</v>
+      </c>
+      <c r="K12" t="n">
+        <v>71.83235</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75.63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>79.77163</v>
+      </c>
+      <c r="N12" t="n">
+        <v>83.24341</v>
+      </c>
+      <c r="O12" t="n">
+        <v>86.33409</v>
+      </c>
+      <c r="P12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57.09374</v>
+      </c>
+      <c r="D13" t="n">
+        <v>56.82897</v>
+      </c>
+      <c r="E13" t="n">
+        <v>46.12931</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45.70464</v>
+      </c>
+      <c r="G13" t="n">
+        <v>46.33501</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46.94947</v>
+      </c>
+      <c r="I13" t="n">
+        <v>48.81463</v>
+      </c>
+      <c r="J13" t="n">
+        <v>50.90288</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56.0321</v>
+      </c>
+      <c r="L13" t="n">
+        <v>60.69051</v>
+      </c>
+      <c r="M13" t="n">
+        <v>68.72152</v>
+      </c>
+      <c r="N13" t="n">
+        <v>70.49385</v>
+      </c>
+      <c r="O13" t="n">
+        <v>72.43606</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>19.78946</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19.3646</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19.04789</v>
+      </c>
+      <c r="L14" t="n">
+        <v>19.05771</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19.26004</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19.64731</v>
+      </c>
+      <c r="O14" t="n">
+        <v>20.4372</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>27.6243</v>
+      </c>
+      <c r="G16" t="n">
+        <v>24.12136</v>
+      </c>
+      <c r="H16" t="n">
+        <v>22.73287</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21.51467</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" t="n">
+        <v>36.87181</v>
+      </c>
+      <c r="N16" t="n">
+        <v>36.55164</v>
+      </c>
+      <c r="O16" t="n">
+        <v>33.45658</v>
+      </c>
+      <c r="P16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.43114</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.40931</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.11266</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.15993</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.67942</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.2199</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.10346</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7.65622</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.60208</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10.46633</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17" t="n">
+        <v>13.15282</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40.63208</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40.28374</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="n">
+        <v>56.53316</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" t="n">
+        <v>70.45052</v>
+      </c>
+      <c r="M18" t="n">
+        <v>64.81191</v>
+      </c>
+      <c r="N18" t="n">
+        <v>60.84252</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>54.47493</v>
+      </c>
+      <c r="D19" t="n">
+        <v>56.79771</v>
+      </c>
+      <c r="E19" t="n">
+        <v>59.25915</v>
+      </c>
+      <c r="F19" t="n">
+        <v>61.87503</v>
+      </c>
+      <c r="G19" t="n">
+        <v>63.83589</v>
+      </c>
+      <c r="H19" t="n">
+        <v>66.16838</v>
+      </c>
+      <c r="I19" t="n">
+        <v>68.08551</v>
+      </c>
+      <c r="J19" t="n">
+        <v>70.15585</v>
+      </c>
+      <c r="K19" t="n">
+        <v>70.03213</v>
+      </c>
+      <c r="L19" t="n">
+        <v>73.59158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>78.99414</v>
+      </c>
+      <c r="N19" t="n">
+        <v>85.69712</v>
+      </c>
+      <c r="O19" t="n">
+        <v>91.45247</v>
+      </c>
+      <c r="P19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57.52317</v>
+      </c>
+      <c r="D20" t="n">
+        <v>58.24527</v>
+      </c>
+      <c r="E20" t="n">
+        <v>59.24444</v>
+      </c>
+      <c r="F20" t="n">
+        <v>60.17912</v>
+      </c>
+      <c r="G20" t="n">
+        <v>61.74322</v>
+      </c>
+      <c r="H20" t="n">
+        <v>61.98516</v>
+      </c>
+      <c r="I20" t="n">
+        <v>62.46943</v>
+      </c>
+      <c r="J20" t="n">
+        <v>61.61449</v>
+      </c>
+      <c r="K20" t="n">
+        <v>62.19873</v>
+      </c>
+      <c r="L20" t="n">
+        <v>65.16407</v>
+      </c>
+      <c r="M20" t="n">
+        <v>67.52088</v>
+      </c>
+      <c r="N20" t="n">
+        <v>69.26048</v>
+      </c>
+      <c r="O20" t="n">
+        <v>70.82755</v>
+      </c>
+      <c r="P20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="n">
+        <v>15.04481</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.80434</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.01254</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15.48362</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16.03972</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.01107</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.21641</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19.28214</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22.86576</v>
+      </c>
+      <c r="M21" t="n">
+        <v>22.5795</v>
+      </c>
+      <c r="N21" t="n">
+        <v>22.86338</v>
+      </c>
+      <c r="O21" t="n">
+        <v>25.78797</v>
+      </c>
+      <c r="P21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.68104</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.46439</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.26469</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.81991</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.87204</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.78435</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.63397</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22" t="n">
+        <v>9.87016</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="n">
+        <v>12.36512</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="n">
+        <v>30.01988</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26.17433</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25.92593</v>
+      </c>
+      <c r="L23" t="n">
+        <v>32.11095</v>
+      </c>
+      <c r="M23" t="n">
+        <v>29.81673</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31.16544</v>
+      </c>
+      <c r="O23" t="n">
+        <v>30.8026</v>
+      </c>
+      <c r="P23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="n">
+        <v>4.74113</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.98818</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.39997</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.46172</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.27684</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.0034</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.74412</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9.45071</v>
+      </c>
+      <c r="P24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34.89121</v>
+      </c>
+      <c r="D25" t="n">
+        <v>36.97282</v>
+      </c>
+      <c r="E25" t="n">
+        <v>37.24976</v>
+      </c>
+      <c r="F25" t="n">
+        <v>39.59124</v>
+      </c>
+      <c r="G25" t="n">
+        <v>39.6282</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" t="n">
+        <v>37.6887</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.37211</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23.10346</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23.21736</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25.0706</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27.01843</v>
+      </c>
+      <c r="H26" t="n">
+        <v>29.35978</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31.52315</v>
+      </c>
+      <c r="J26" t="n">
+        <v>34.07957</v>
+      </c>
+      <c r="K26" t="n">
+        <v>35.91553</v>
+      </c>
+      <c r="L26" t="n">
+        <v>36.36577</v>
+      </c>
+      <c r="M26" t="n">
+        <v>36.52696</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37.65749</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.74196</v>
+      </c>
+      <c r="P26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.59222</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.0309</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.51705</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.50668</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.39334</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.26756</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.43282</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.68911</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.24664</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.53481</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.48998</v>
+      </c>
+      <c r="G29" t="n">
+        <v>17.1869</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17.6941</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17.76584</v>
+      </c>
+      <c r="J29" t="n">
+        <v>17.94593</v>
+      </c>
+      <c r="K29" t="n">
+        <v>18.31874</v>
+      </c>
+      <c r="L29" t="n">
+        <v>19.19414</v>
+      </c>
+      <c r="M29" t="n">
+        <v>17.60385</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19.72259</v>
+      </c>
+      <c r="O29" t="n">
+        <v>24.33869</v>
+      </c>
+      <c r="P29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>44.4913</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43.01794</v>
+      </c>
+      <c r="E30" t="n">
+        <v>40.86433</v>
+      </c>
+      <c r="F30" t="n">
+        <v>41.51951</v>
+      </c>
+      <c r="G30" t="n">
+        <v>41.93789</v>
+      </c>
+      <c r="H30" t="n">
+        <v>44.27244</v>
+      </c>
+      <c r="I30" t="n">
+        <v>45.81989</v>
+      </c>
+      <c r="J30" t="n">
+        <v>49.53498</v>
+      </c>
+      <c r="K30" t="n">
+        <v>51.35084</v>
+      </c>
+      <c r="L30" t="n">
+        <v>54.0999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>57.99295</v>
+      </c>
+      <c r="N30" t="n">
+        <v>59.62523</v>
+      </c>
+      <c r="O30" t="n">
+        <v>62.69648</v>
+      </c>
+      <c r="P30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>1.15666</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.41163</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.60085</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="n">
+        <v>2.30707</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.44097</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.6123</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.1813</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.53401</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.57959</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.14664</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.56077</v>
+      </c>
+      <c r="P31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.15888</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.12819</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.76393</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.8572</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.28567</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.30867</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.31221</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.36324</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.55527</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.72363</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.16599</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" t="n">
+        <v>9.55895</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" t="n">
+        <v>9.02872</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.35915</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33" t="n">
+        <v>4.46391</v>
+      </c>
+      <c r="P33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.49329</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.36669</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.45063</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.85997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.76059</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.32616</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.59144</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.25094</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.08014</v>
+      </c>
+      <c r="L34" t="n">
+        <v>11.72333</v>
+      </c>
+      <c r="M34" t="n">
+        <v>14.0676</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15.83411</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.6146</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.62893</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.05544</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.08996</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.05736</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.80576</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.75413</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.19805</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.80835</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8.95189</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11.02242</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11.90675</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>58.88373</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.88196</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.60763</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.87481</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.54182</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.98368</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.43982</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.4248</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.59665</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.95719</v>
+      </c>
+      <c r="L37" t="n">
+        <v>15.10609</v>
+      </c>
+      <c r="M37" t="n">
+        <v>17.97689</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20.6206</v>
+      </c>
+      <c r="O37" t="n">
+        <v>20.60955</v>
+      </c>
+      <c r="P37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.86962</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38" t="n">
+        <v>1.71541</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" t="n">
+        <v>1.1414</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" t="n">
+        <v>2.3143</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.49129</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.61204</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.05465</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.84086</v>
+      </c>
+      <c r="P38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21.25124</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24.58858</v>
+      </c>
+      <c r="E39" t="n">
+        <v>22.35085</v>
+      </c>
+      <c r="F39" t="n">
+        <v>23.27515</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="n">
+        <v>20.5286</v>
+      </c>
+      <c r="J39" t="n">
+        <v>21.47513</v>
+      </c>
+      <c r="K39" t="n">
+        <v>29.45736</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.83114</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.82524</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="n">
+        <v>0.92217</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.20548</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.41985</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40" t="n">
+        <v>1.95391</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.02686</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.12218</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.25039</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37.18506</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="n">
+        <v>40.3659</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42.71669</v>
+      </c>
+      <c r="G41" t="n">
+        <v>42.67269</v>
+      </c>
+      <c r="H41" t="n">
+        <v>47.66431</v>
+      </c>
+      <c r="I41" t="n">
+        <v>46.5433</v>
+      </c>
+      <c r="J41" t="n">
+        <v>52.11396</v>
+      </c>
+      <c r="K41" t="n">
+        <v>54.85674</v>
+      </c>
+      <c r="L41" t="n">
+        <v>59.0127</v>
+      </c>
+      <c r="M41" t="n">
+        <v>65.93443</v>
+      </c>
+      <c r="N41" t="n">
+        <v>70.51935</v>
+      </c>
+      <c r="O41" t="n">
+        <v>74.39199</v>
+      </c>
+      <c r="P41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.75683</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.83335</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.41981</v>
+      </c>
+      <c r="F42" t="n">
+        <v>14.96737</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17.01648</v>
+      </c>
+      <c r="H42" t="n">
+        <v>18.34087</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19.51878</v>
+      </c>
+      <c r="J42" t="n">
+        <v>19.9669</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.18727</v>
+      </c>
+      <c r="L42" t="n">
+        <v>21.82372</v>
+      </c>
+      <c r="M42" t="n">
+        <v>23.32153</v>
+      </c>
+      <c r="N42" t="n">
+        <v>24.32841</v>
+      </c>
+      <c r="O42" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>23.91613</v>
+      </c>
+      <c r="D43" t="n">
+        <v>24.78947</v>
+      </c>
+      <c r="E43" t="n">
+        <v>24.87423</v>
+      </c>
+      <c r="F43" t="n">
+        <v>24.5713</v>
+      </c>
+      <c r="G43" t="n">
+        <v>27.45562</v>
+      </c>
+      <c r="H43" t="n">
+        <v>29.9112</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31.86716</v>
+      </c>
+      <c r="J43" t="n">
+        <v>32.96354</v>
+      </c>
+      <c r="K43" t="n">
+        <v>35.36916</v>
+      </c>
+      <c r="L43" t="n">
+        <v>36.95747</v>
+      </c>
+      <c r="M43" t="n">
+        <v>38.99175</v>
+      </c>
+      <c r="N43" t="n">
+        <v>42.74132</v>
+      </c>
+      <c r="O43" t="n">
+        <v>45.01903</v>
+      </c>
+      <c r="P43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.41838</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44" t="n">
+        <v>2.98813</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.00913</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44" t="n">
+        <v>4.2107</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44" t="n">
+        <v>7.4664</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.27455</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.11311</v>
+      </c>
+      <c r="O44" t="n">
+        <v>11.42145</v>
+      </c>
+      <c r="P44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.22164</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.36318</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.88885</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.88115</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45" t="n">
+        <v>6.51998</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45" t="n">
+        <v>9.06463</v>
+      </c>
+      <c r="O45" t="n">
+        <v>10.36444</v>
+      </c>
+      <c r="P45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" t="n">
+        <v>25.63912</v>
+      </c>
+      <c r="H46" t="n">
+        <v>25.48399</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46" t="n">
+        <v>44.45025</v>
+      </c>
+      <c r="O46" t="n">
+        <v>46.74096</v>
+      </c>
+      <c r="P46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>30.99629</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33.51016</v>
+      </c>
+      <c r="E47" t="n">
+        <v>36.40949</v>
+      </c>
+      <c r="F47" t="n">
+        <v>39.58246</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" t="n">
+        <v>44.5333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45.89533</v>
+      </c>
+      <c r="J47" t="n">
+        <v>48.0292</v>
+      </c>
+      <c r="K47" t="n">
+        <v>50.54026</v>
+      </c>
+      <c r="L47" t="n">
+        <v>50.43702</v>
+      </c>
+      <c r="M47" t="n">
+        <v>55.83363</v>
+      </c>
+      <c r="N47" t="n">
+        <v>58.80533</v>
+      </c>
+      <c r="O47" t="n">
+        <v>61.63096</v>
+      </c>
+      <c r="P47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>22.04292</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.14311</v>
+      </c>
+      <c r="E48" t="n">
+        <v>26.87868</v>
+      </c>
+      <c r="F48" t="n">
+        <v>32.58655</v>
+      </c>
+      <c r="G48" t="n">
+        <v>53.51187</v>
+      </c>
+      <c r="H48" t="n">
+        <v>61.85089</v>
+      </c>
+      <c r="I48" t="n">
+        <v>86.18538</v>
+      </c>
+      <c r="J48" t="n">
+        <v>105.78393</v>
+      </c>
+      <c r="K48" t="n">
+        <v>117.89144</v>
+      </c>
+      <c r="L48" t="n">
+        <v>114.78403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>95.00228</v>
+      </c>
+      <c r="N48" t="n">
+        <v>80.29585</v>
+      </c>
+      <c r="O48" t="n">
+        <v>62.4513</v>
+      </c>
+      <c r="P48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>19.56232</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21.61252</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25.10229</v>
+      </c>
+      <c r="F50" t="n">
+        <v>31.96361</v>
+      </c>
+      <c r="G50" t="n">
+        <v>35.86369</v>
+      </c>
+      <c r="H50" t="n">
+        <v>33.22082</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33.41991</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36.17381</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.618</v>
+      </c>
+      <c r="L50" t="n">
+        <v>52.00389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>48.31158</v>
+      </c>
+      <c r="N50" t="n">
+        <v>46.53973</v>
+      </c>
+      <c r="O50" t="n">
+        <v>45.86359</v>
+      </c>
+      <c r="P50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.42699</v>
+      </c>
+      <c r="D51" t="n">
+        <v>30.07788</v>
+      </c>
+      <c r="E51" t="n">
+        <v>34.60981</v>
+      </c>
+      <c r="F51" t="n">
+        <v>37.30648</v>
+      </c>
+      <c r="G51" t="n">
+        <v>44.20706</v>
+      </c>
+      <c r="H51" t="n">
+        <v>48.90877</v>
+      </c>
+      <c r="I51" t="n">
+        <v>50.64701</v>
+      </c>
+      <c r="J51" t="n">
+        <v>54.48956</v>
+      </c>
+      <c r="K51" t="n">
+        <v>58.05345</v>
+      </c>
+      <c r="L51" t="n">
+        <v>60.6826</v>
+      </c>
+      <c r="M51" t="n">
+        <v>63.21222</v>
+      </c>
+      <c r="N51" t="n">
+        <v>64.58364</v>
+      </c>
+      <c r="O51" t="n">
+        <v>64.17338</v>
+      </c>
+      <c r="P51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>57.2493</v>
+      </c>
+      <c r="D52" t="n">
+        <v>60.02826</v>
+      </c>
+      <c r="E52" t="n">
+        <v>63.5351</v>
+      </c>
+      <c r="F52" t="n">
+        <v>67.53728</v>
+      </c>
+      <c r="G52" t="n">
+        <v>74.44244</v>
+      </c>
+      <c r="H52" t="n">
+        <v>80.42934</v>
+      </c>
+      <c r="I52" t="n">
+        <v>79.06494</v>
+      </c>
+      <c r="J52" t="n">
+        <v>78.57612</v>
+      </c>
+      <c r="K52" t="n">
+        <v>75.67538</v>
+      </c>
+      <c r="L52" t="n">
+        <v>74.25672</v>
+      </c>
+      <c r="M52" t="n">
+        <v>73.58181</v>
+      </c>
+      <c r="N52" t="n">
+        <v>76.80115</v>
+      </c>
+      <c r="O52" t="n">
+        <v>79.59763</v>
+      </c>
+      <c r="P52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.26718</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.69048</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.01653</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.27423</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.58877</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.32128</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.53621</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.73832</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.73736</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.40972</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.40697</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.91985</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>33.32915</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" t="n">
+        <v>4.53075</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4.55632</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5.72721</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.77371</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56" t="n">
+        <v>8.1253</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8.23363</v>
+      </c>
+      <c r="P56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57" t="n">
+        <v>38.92361</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="n">
+        <v>31.16712</v>
+      </c>
+      <c r="E58" t="n">
+        <v>32.27221</v>
+      </c>
+      <c r="F58" t="n">
+        <v>28.98658</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.32905</v>
+      </c>
+      <c r="H58" t="n">
+        <v>31.61872</v>
+      </c>
+      <c r="I58" t="n">
+        <v>31.44335</v>
+      </c>
+      <c r="J58" t="n">
+        <v>31.85237</v>
+      </c>
+      <c r="K58" t="n">
+        <v>31.64919</v>
+      </c>
+      <c r="L58" t="n">
+        <v>32.36041</v>
+      </c>
+      <c r="M58" t="n">
+        <v>33.46806</v>
+      </c>
+      <c r="N58" t="n">
+        <v>28.7532</v>
+      </c>
+      <c r="O58" t="n">
+        <v>30.05602</v>
+      </c>
+      <c r="P58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>20.65926</v>
+      </c>
+      <c r="D59" t="n">
+        <v>19.75449</v>
+      </c>
+      <c r="E59" t="n">
+        <v>20.29027</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20.70612</v>
+      </c>
+      <c r="G59" t="n">
+        <v>21.12693</v>
+      </c>
+      <c r="H59" t="n">
+        <v>21.16942</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21.16661</v>
+      </c>
+      <c r="J59" t="n">
+        <v>21.96161</v>
+      </c>
+      <c r="K59" t="n">
+        <v>22.57753</v>
+      </c>
+      <c r="L59" t="n">
+        <v>22.95872</v>
+      </c>
+      <c r="M59" t="n">
+        <v>23.40693</v>
+      </c>
+      <c r="N59" t="n">
+        <v>24.51857</v>
+      </c>
+      <c r="O59" t="n">
+        <v>25.45447</v>
+      </c>
+      <c r="P59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.27874</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.07089</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.33971</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.2467</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" t="n">
+        <v>0.95908</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" t="n">
+        <v>1.70942</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.03361</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>56.3511</v>
+      </c>
+      <c r="D62" t="n">
+        <v>60.37787</v>
+      </c>
+      <c r="E62" t="n">
+        <v>62.84376</v>
+      </c>
+      <c r="F62" t="n">
+        <v>65.28051</v>
+      </c>
+      <c r="G62" t="n">
+        <v>66.76598</v>
+      </c>
+      <c r="H62" t="n">
+        <v>68.44583</v>
+      </c>
+      <c r="I62" t="n">
+        <v>68.61673</v>
+      </c>
+      <c r="J62" t="n">
+        <v>68.81517</v>
+      </c>
+      <c r="K62" t="n">
+        <v>68.21029</v>
+      </c>
+      <c r="L62" t="n">
+        <v>69.20874</v>
+      </c>
+      <c r="M62" t="n">
+        <v>71.65114</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62" t="n">
+        <v>76.6841</v>
+      </c>
+      <c r="P62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.19465</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.48196</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.6595</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.31394</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.59085</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.78515</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" t="n">
+        <v>15.76992</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15.95203</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16.14878</v>
+      </c>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>82.43907</v>
+      </c>
+      <c r="D66" t="n">
+        <v>84.43053</v>
+      </c>
+      <c r="E66" t="n">
+        <v>84.96138</v>
+      </c>
+      <c r="F66" t="n">
+        <v>87.08364</v>
+      </c>
+      <c r="G66" t="n">
+        <v>89.6746</v>
+      </c>
+      <c r="H66" t="n">
+        <v>91.83801</v>
+      </c>
+      <c r="I66" t="n">
+        <v>93.28768</v>
+      </c>
+      <c r="J66" t="n">
+        <v>93.95481</v>
+      </c>
+      <c r="K66" t="n">
+        <v>95.01728</v>
+      </c>
+      <c r="L66" t="n">
+        <v>91.75254</v>
+      </c>
+      <c r="M66" t="n">
+        <v>94.05499</v>
+      </c>
+      <c r="N66" t="n">
+        <v>95.08737</v>
+      </c>
+      <c r="O66" t="n">
+        <v>93.72182</v>
+      </c>
+      <c r="P66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>56.89687</v>
+      </c>
+      <c r="D67" t="n">
+        <v>55.85262</v>
+      </c>
+      <c r="E67" t="n">
+        <v>53.70435</v>
+      </c>
+      <c r="F67" t="n">
+        <v>54.1899</v>
+      </c>
+      <c r="G67" t="n">
+        <v>54.01327</v>
+      </c>
+      <c r="H67" t="n">
+        <v>53.91505</v>
+      </c>
+      <c r="I67" t="n">
+        <v>53.8484</v>
+      </c>
+      <c r="J67" t="n">
+        <v>53.29764</v>
+      </c>
+      <c r="K67" t="n">
+        <v>53.18593</v>
+      </c>
+      <c r="L67" t="n">
+        <v>53.7642</v>
+      </c>
+      <c r="M67" t="n">
+        <v>56.06344</v>
+      </c>
+      <c r="N67" t="n">
+        <v>57.0639</v>
+      </c>
+      <c r="O67" t="n">
+        <v>58.3049</v>
+      </c>
+      <c r="P67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="n">
+        <v>8.20971</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="n">
+        <v>8.5306</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" t="n">
+        <v>1.15164</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" t="n">
+        <v>4.47064</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.1901</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.17309</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.4157</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="n">
+        <v>37.78849</v>
+      </c>
+      <c r="D71" t="n">
+        <v>38.91862</v>
+      </c>
+      <c r="E71" t="n">
+        <v>41.28475</v>
+      </c>
+      <c r="F71" t="n">
+        <v>42.81473</v>
+      </c>
+      <c r="G71" t="n">
+        <v>42.23782</v>
+      </c>
+      <c r="H71" t="n">
+        <v>46.6001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>37.96023</v>
+      </c>
+      <c r="J71" t="n">
+        <v>36.83939</v>
+      </c>
+      <c r="K71" t="n">
+        <v>34.00198</v>
+      </c>
+      <c r="L71" t="n">
+        <v>25.21715</v>
+      </c>
+      <c r="M71" t="n">
+        <v>28.26323</v>
+      </c>
+      <c r="N71" t="n">
+        <v>30.08354</v>
+      </c>
+      <c r="O71" t="n">
+        <v>27.93352</v>
+      </c>
+      <c r="P71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72" t="n">
+        <v>56.52802</v>
+      </c>
+      <c r="O72" t="n">
+        <v>61.65019</v>
+      </c>
+      <c r="P72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73" t="n">
+        <v>5.70675</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.12059</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6.35065</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8.42508</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8.78976</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73" t="n">
+        <v>12.07963</v>
+      </c>
+      <c r="O73" t="n">
+        <v>12.19913</v>
+      </c>
+      <c r="P73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>51.08721</v>
+      </c>
+      <c r="D74" t="n">
+        <v>58.73001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>66.66192</v>
+      </c>
+      <c r="F74" t="n">
+        <v>72.91338</v>
+      </c>
+      <c r="G74" t="n">
+        <v>80.21409</v>
+      </c>
+      <c r="H74" t="n">
+        <v>90.21032</v>
+      </c>
+      <c r="I74" t="n">
+        <v>94.97369</v>
+      </c>
+      <c r="J74" t="n">
+        <v>91.39059</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74" t="n">
+        <v>113.98336</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76" t="n">
+        <v>52.77318</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>9.46136</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78" t="n">
+        <v>17.87513</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>2.15226</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.14412</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.88524</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.03683</v>
+      </c>
+      <c r="J79" t="n">
+        <v>7.8249</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8.91926</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.03526</v>
+      </c>
+      <c r="M79" t="n">
+        <v>10.2789</v>
+      </c>
+      <c r="N79" t="n">
+        <v>10.43145</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9.93176</v>
+      </c>
+      <c r="P79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80" t="n">
+        <v>2.25635</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.62239</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>7.29253</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.3507</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10.89407</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11.19754</v>
+      </c>
+      <c r="J81" t="n">
+        <v>11.3032</v>
+      </c>
+      <c r="K81" t="n">
+        <v>10.77931</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10.36444</v>
+      </c>
+      <c r="M81" t="n">
+        <v>11.49131</v>
+      </c>
+      <c r="N81" t="n">
+        <v>12.17107</v>
+      </c>
+      <c r="O81" t="n">
+        <v>12.91051</v>
+      </c>
+      <c r="P81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>14.88747</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15.42436</v>
+      </c>
+      <c r="E83" t="n">
+        <v>17.16233</v>
+      </c>
+      <c r="F83" t="n">
+        <v>17.00513</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17.06024</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83" t="n">
+        <v>18.75294</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="n">
+        <v>20.5588</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83" t="n">
+        <v>20.39799</v>
+      </c>
+      <c r="P83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" t="n">
+        <v>31.16715</v>
+      </c>
+      <c r="G84" t="n">
+        <v>31.16317</v>
+      </c>
+      <c r="H84" t="n">
+        <v>32.11565</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32.98464</v>
+      </c>
+      <c r="J84" t="n">
+        <v>41.15414</v>
+      </c>
+      <c r="K84" t="n">
+        <v>53.86305</v>
+      </c>
+      <c r="L84" t="n">
+        <v>54.83638</v>
+      </c>
+      <c r="M84" t="n">
+        <v>57.83573</v>
+      </c>
+      <c r="N84" t="n">
+        <v>59.89669</v>
+      </c>
+      <c r="O84" t="n">
+        <v>59.6662</v>
+      </c>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35.93188</v>
+      </c>
+      <c r="D85" t="n">
+        <v>39.68776</v>
+      </c>
+      <c r="E85" t="n">
+        <v>44.56082</v>
+      </c>
+      <c r="F85" t="n">
+        <v>52.28572</v>
+      </c>
+      <c r="G85" t="n">
+        <v>60.15263</v>
+      </c>
+      <c r="H85" t="n">
+        <v>65.10431</v>
+      </c>
+      <c r="I85" t="n">
+        <v>67.6163</v>
+      </c>
+      <c r="J85" t="n">
+        <v>67.35073</v>
+      </c>
+      <c r="K85" t="n">
+        <v>64.48197</v>
+      </c>
+      <c r="L85" t="n">
+        <v>61.7145</v>
+      </c>
+      <c r="M85" t="n">
+        <v>60.37749</v>
+      </c>
+      <c r="N85" t="n">
+        <v>59.50613</v>
+      </c>
+      <c r="O85" t="n">
+        <v>59.63108</v>
+      </c>
+      <c r="P85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="n">
+        <v>45.48106</v>
+      </c>
+      <c r="D86" t="n">
+        <v>47.63999</v>
+      </c>
+      <c r="E86" t="n">
+        <v>54.0475</v>
+      </c>
+      <c r="F86" t="n">
+        <v>62.16292</v>
+      </c>
+      <c r="G86" t="n">
+        <v>68.38998</v>
+      </c>
+      <c r="H86" t="n">
+        <v>70.35714</v>
+      </c>
+      <c r="I86" t="n">
+        <v>72.66466</v>
+      </c>
+      <c r="J86" t="n">
+        <v>71.76684</v>
+      </c>
+      <c r="K86" t="n">
+        <v>74.20909</v>
+      </c>
+      <c r="L86" t="n">
+        <v>74.46415</v>
+      </c>
+      <c r="M86" t="n">
+        <v>78.47237</v>
+      </c>
+      <c r="N86" t="n">
+        <v>80.94236</v>
+      </c>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.52686</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.78483</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10.35687</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.88897</v>
+      </c>
+      <c r="G87" t="n">
+        <v>11.24928</v>
+      </c>
+      <c r="H87" t="n">
+        <v>11.00422</v>
+      </c>
+      <c r="I87" t="n">
+        <v>11.82165</v>
+      </c>
+      <c r="J87" t="n">
+        <v>13.48119</v>
+      </c>
+      <c r="K87" t="n">
+        <v>15.41577</v>
+      </c>
+      <c r="L87" t="n">
+        <v>16.39657</v>
+      </c>
+      <c r="M87" t="n">
+        <v>18.22679</v>
+      </c>
+      <c r="N87" t="n">
+        <v>23.27124</v>
+      </c>
+      <c r="O87" t="n">
+        <v>24.7677</v>
+      </c>
+      <c r="P87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15.06488</v>
+      </c>
+      <c r="D88" t="n">
+        <v>14.35612</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15.01006</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16.29826</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16.98276</v>
+      </c>
+      <c r="H88" t="n">
+        <v>17.73973</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17.91134</v>
+      </c>
+      <c r="J88" t="n">
+        <v>18.39534</v>
+      </c>
+      <c r="K88" t="n">
+        <v>21.33734</v>
+      </c>
+      <c r="L88" t="n">
+        <v>23.74035</v>
+      </c>
+      <c r="M88" t="n">
+        <v>24.88563</v>
+      </c>
+      <c r="N88" t="n">
+        <v>27.20455</v>
+      </c>
+      <c r="O88" t="n">
+        <v>31.51226</v>
+      </c>
+      <c r="P88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="n">
+        <v>19.19052</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20.24645</v>
+      </c>
+      <c r="E89" t="n">
+        <v>19.10472</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19.87151</v>
+      </c>
+      <c r="G89" t="n">
+        <v>21.72612</v>
+      </c>
+      <c r="H89" t="n">
+        <v>22.86676</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25.22786</v>
+      </c>
+      <c r="J89" t="n">
+        <v>29.90273</v>
+      </c>
+      <c r="K89" t="n">
+        <v>36.39398</v>
+      </c>
+      <c r="L89" t="n">
+        <v>36.82046</v>
+      </c>
+      <c r="M89" t="n">
+        <v>43.08077</v>
+      </c>
+      <c r="N89" t="n">
+        <v>48.82941</v>
+      </c>
+      <c r="O89" t="n">
+        <v>55.16453</v>
+      </c>
+      <c r="P89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.99745</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="n">
+        <v>12.7037</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" t="n">
+        <v>15.84841</v>
+      </c>
+      <c r="H90" t="n">
+        <v>15.97636</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50.04549</v>
+      </c>
+      <c r="D91" t="n">
+        <v>51.72226</v>
+      </c>
+      <c r="E91" t="n">
+        <v>53.35593</v>
+      </c>
+      <c r="F91" t="n">
+        <v>54.18706</v>
+      </c>
+      <c r="G91" t="n">
+        <v>56.1747</v>
+      </c>
+      <c r="H91" t="n">
+        <v>56.37323</v>
+      </c>
+      <c r="I91" t="n">
+        <v>57.74554</v>
+      </c>
+      <c r="J91" t="n">
+        <v>60.32063</v>
+      </c>
+      <c r="K91" t="n">
+        <v>59.0189</v>
+      </c>
+      <c r="L91" t="n">
+        <v>63.45151</v>
+      </c>
+      <c r="M91" t="n">
+        <v>70.60624</v>
+      </c>
+      <c r="N91" t="n">
+        <v>73.47068</v>
+      </c>
+      <c r="O91" t="n">
+        <v>71.24203</v>
+      </c>
+      <c r="P91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>49.47153</v>
+      </c>
+      <c r="D92" t="n">
+        <v>51.78589</v>
+      </c>
+      <c r="E92" t="n">
+        <v>56.80097</v>
+      </c>
+      <c r="F92" t="n">
+        <v>56.77512</v>
+      </c>
+      <c r="G92" t="n">
+        <v>56.50298</v>
+      </c>
+      <c r="H92" t="n">
+        <v>58.09116</v>
+      </c>
+      <c r="I92" t="n">
+        <v>57.67434</v>
+      </c>
+      <c r="J92" t="n">
+        <v>60.50194</v>
+      </c>
+      <c r="K92" t="n">
+        <v>59.69733</v>
+      </c>
+      <c r="L92" t="n">
+        <v>62.37535</v>
+      </c>
+      <c r="M92"/>
+      <c r="N92" t="n">
+        <v>65.84655</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="n">
+        <v>48.8116</v>
+      </c>
+      <c r="D93" t="n">
+        <v>51.89096</v>
+      </c>
+      <c r="E93" t="n">
+        <v>54.51629</v>
+      </c>
+      <c r="F93" t="n">
+        <v>57.75019</v>
+      </c>
+      <c r="G93" t="n">
+        <v>61.53445</v>
+      </c>
+      <c r="H93" t="n">
+        <v>63.96766</v>
+      </c>
+      <c r="I93" t="n">
+        <v>65.83808</v>
+      </c>
+      <c r="J93" t="n">
+        <v>66.26594</v>
+      </c>
+      <c r="K93" t="n">
+        <v>65.60215</v>
+      </c>
+      <c r="L93" t="n">
+        <v>65.39041</v>
+      </c>
+      <c r="M93" t="n">
+        <v>64.26893</v>
+      </c>
+      <c r="N93" t="n">
+        <v>63.85777</v>
+      </c>
+      <c r="O93" t="n">
+        <v>62.46929</v>
+      </c>
+      <c r="P93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15.38353</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17.93916</v>
+      </c>
+      <c r="E94" t="n">
+        <v>19.09413</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21.63609</v>
+      </c>
+      <c r="G94" t="n">
+        <v>22.09912</v>
+      </c>
+      <c r="H94" t="n">
+        <v>20.19018</v>
+      </c>
+      <c r="I94" t="n">
+        <v>20.13022</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94" t="n">
+        <v>25.3042</v>
+      </c>
+      <c r="L94" t="n">
+        <v>25.21812</v>
+      </c>
+      <c r="M94" t="n">
+        <v>28.93489</v>
+      </c>
+      <c r="N94" t="n">
+        <v>28.2233</v>
+      </c>
+      <c r="O94" t="n">
+        <v>30.82267</v>
+      </c>
+      <c r="P94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="n">
+        <v>48.73639</v>
+      </c>
+      <c r="D95" t="n">
+        <v>49.91419</v>
+      </c>
+      <c r="E95" t="n">
+        <v>50.70765</v>
+      </c>
+      <c r="F95" t="n">
+        <v>51.83603</v>
+      </c>
+      <c r="G95" t="n">
+        <v>53.57715</v>
+      </c>
+      <c r="H95" t="n">
+        <v>54.97135</v>
+      </c>
+      <c r="I95" t="n">
+        <v>57.1059</v>
+      </c>
+      <c r="J95" t="n">
+        <v>57.81827</v>
+      </c>
+      <c r="K95" t="n">
+        <v>57.644</v>
+      </c>
+      <c r="L95" t="n">
+        <v>57.6837</v>
+      </c>
+      <c r="M95" t="n">
+        <v>58.07908</v>
+      </c>
+      <c r="N95" t="n">
+        <v>59.92406</v>
+      </c>
+      <c r="O95" t="n">
+        <v>61.45932</v>
+      </c>
+      <c r="P95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>28.28053</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>30.84805</v>
+      </c>
+      <c r="F96" t="n">
+        <v>34.69397</v>
+      </c>
+      <c r="G96" t="n">
+        <v>39.41155</v>
+      </c>
+      <c r="H96" t="n">
+        <v>39.69642</v>
+      </c>
+      <c r="I96" t="n">
+        <v>39.79666</v>
+      </c>
+      <c r="J96" t="n">
+        <v>41.1681</v>
+      </c>
+      <c r="K96" t="n">
+        <v>44.30046</v>
+      </c>
+      <c r="L96" t="n">
+        <v>45.11951</v>
+      </c>
+      <c r="M96" t="n">
+        <v>40.43267</v>
+      </c>
+      <c r="N96" t="n">
+        <v>39.93893</v>
+      </c>
+      <c r="O96" t="n">
+        <v>46.60965</v>
+      </c>
+      <c r="P96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="n">
+        <v>28.71358</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.61152</v>
+      </c>
+      <c r="E97" t="n">
+        <v>39.82332</v>
+      </c>
+      <c r="F97" t="n">
+        <v>45.17211</v>
+      </c>
+      <c r="G97" t="n">
+        <v>48.30098</v>
+      </c>
+      <c r="H97" t="n">
+        <v>52.92236</v>
+      </c>
+      <c r="I97" t="n">
+        <v>52.90643</v>
+      </c>
+      <c r="J97" t="n">
+        <v>50.79146</v>
+      </c>
+      <c r="K97" t="n">
+        <v>46.41731</v>
+      </c>
+      <c r="L97" t="n">
+        <v>40.77455</v>
+      </c>
+      <c r="M97" t="n">
+        <v>39.49354</v>
+      </c>
+      <c r="N97" t="n">
+        <v>42.1698</v>
+      </c>
+      <c r="O97" t="n">
+        <v>44.52599</v>
+      </c>
+      <c r="P97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.74735</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.81555</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.82259</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" t="n">
+        <v>2.92098</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.96753</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98" t="n">
+        <v>4.04812</v>
+      </c>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101" t="n">
+        <v>23.68738</v>
+      </c>
+      <c r="E101" t="n">
+        <v>23.82139</v>
+      </c>
+      <c r="F101" t="n">
+        <v>23.08873</v>
+      </c>
+      <c r="G101" t="n">
+        <v>22.30059</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34.80344</v>
+      </c>
+      <c r="D102" t="n">
+        <v>40.18546</v>
+      </c>
+      <c r="E102" t="n">
+        <v>43.275</v>
+      </c>
+      <c r="F102" t="n">
+        <v>40.77013</v>
+      </c>
+      <c r="G102" t="n">
+        <v>40.68498</v>
+      </c>
+      <c r="H102" t="n">
+        <v>42.53464</v>
+      </c>
+      <c r="I102" t="n">
+        <v>43.52689</v>
+      </c>
+      <c r="J102" t="n">
+        <v>42.82681</v>
+      </c>
+      <c r="K102" t="n">
+        <v>46.60469</v>
+      </c>
+      <c r="L102" t="n">
+        <v>44.26985</v>
+      </c>
+      <c r="M102" t="n">
+        <v>42.13335</v>
+      </c>
+      <c r="N102" t="n">
+        <v>41.34548</v>
+      </c>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.68175</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.09247</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.15078</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.9338</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.74256</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7.78892</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8.96279</v>
+      </c>
+      <c r="J103" t="n">
+        <v>11.39688</v>
+      </c>
+      <c r="K103" t="n">
+        <v>13.09264</v>
+      </c>
+      <c r="L103" t="n">
+        <v>15.99353</v>
+      </c>
+      <c r="M103" t="n">
+        <v>16.08795</v>
+      </c>
+      <c r="N103" t="n">
+        <v>17.08848</v>
+      </c>
+      <c r="O103" t="n">
+        <v>16.72537</v>
+      </c>
+      <c r="P103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="n">
+        <v>56.63658</v>
+      </c>
+      <c r="D104" t="n">
+        <v>63.30484</v>
+      </c>
+      <c r="E104" t="n">
+        <v>67.72078</v>
+      </c>
+      <c r="F104" t="n">
+        <v>72.40145</v>
+      </c>
+      <c r="G104" t="n">
+        <v>77.26005</v>
+      </c>
+      <c r="H104" t="n">
+        <v>78.85541</v>
+      </c>
+      <c r="I104" t="n">
+        <v>78.95482</v>
+      </c>
+      <c r="J104" t="n">
+        <v>78.02857</v>
+      </c>
+      <c r="K104" t="n">
+        <v>77.27155</v>
+      </c>
+      <c r="L104" t="n">
+        <v>76.74977</v>
+      </c>
+      <c r="M104" t="n">
+        <v>70.55192</v>
+      </c>
+      <c r="N104" t="n">
+        <v>67.28473</v>
+      </c>
+      <c r="O104" t="n">
+        <v>65.13343</v>
+      </c>
+      <c r="P104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>38.30552</v>
+      </c>
+      <c r="D105" t="n">
+        <v>43.4013</v>
+      </c>
+      <c r="E105" t="n">
+        <v>44.86877</v>
+      </c>
+      <c r="F105" t="n">
+        <v>43.03044</v>
+      </c>
+      <c r="G105" t="n">
+        <v>43.61014</v>
+      </c>
+      <c r="H105" t="n">
+        <v>44.21955</v>
+      </c>
+      <c r="I105" t="n">
+        <v>44.10024</v>
+      </c>
+      <c r="J105" t="n">
+        <v>46.67227</v>
+      </c>
+      <c r="K105" t="n">
+        <v>48.29705</v>
+      </c>
+      <c r="L105" t="n">
+        <v>48.20804</v>
+      </c>
+      <c r="M105" t="n">
+        <v>47.7966</v>
+      </c>
+      <c r="N105" t="n">
+        <v>49.73384</v>
+      </c>
+      <c r="O105" t="n">
+        <v>46.26451</v>
+      </c>
+      <c r="P105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.31444</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.51627</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.47953</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.95755</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106" t="n">
+        <v>3.67344</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.8813</v>
+      </c>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106" t="n">
+        <v>10.82567</v>
+      </c>
+      <c r="P106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19.40065</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v>9.29885</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107" t="n">
+        <v>11.63836</v>
+      </c>
+      <c r="P107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>50.30951</v>
+      </c>
+      <c r="D108" t="n">
+        <v>54.83807</v>
+      </c>
+      <c r="E108" t="n">
+        <v>59.23589</v>
+      </c>
+      <c r="F108" t="n">
+        <v>60.87731</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" t="n">
+        <v>20.70588</v>
+      </c>
+      <c r="G109" t="n">
+        <v>24.60685</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109" t="n">
+        <v>29.81716</v>
+      </c>
+      <c r="J109" t="n">
+        <v>31.62594</v>
+      </c>
+      <c r="K109" t="n">
+        <v>36.73095</v>
+      </c>
+      <c r="L109" t="n">
+        <v>34.44495</v>
+      </c>
+      <c r="M109" t="n">
+        <v>36.01831</v>
+      </c>
+      <c r="N109" t="n">
+        <v>43.6751</v>
+      </c>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="n">
+        <v>50.62501</v>
+      </c>
+      <c r="D110" t="n">
+        <v>56.60204</v>
+      </c>
+      <c r="E110" t="n">
+        <v>61.27275</v>
+      </c>
+      <c r="F110" t="n">
+        <v>68.0175</v>
+      </c>
+      <c r="G110" t="n">
+        <v>73.13759</v>
+      </c>
+      <c r="H110" t="n">
+        <v>77.5066</v>
+      </c>
+      <c r="I110" t="n">
+        <v>78.37997</v>
+      </c>
+      <c r="J110" t="n">
+        <v>78.43972</v>
+      </c>
+      <c r="K110" t="n">
+        <v>80.39979</v>
+      </c>
+      <c r="L110" t="n">
+        <v>83.32141</v>
+      </c>
+      <c r="M110" t="n">
+        <v>80.75075</v>
+      </c>
+      <c r="N110" t="n">
+        <v>76.60441</v>
+      </c>
+      <c r="O110" t="n">
+        <v>73.94864</v>
+      </c>
+      <c r="P110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.81434</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10.21577</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.85194</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12.19145</v>
+      </c>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111" t="n">
+        <v>10.3312</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111" t="n">
+        <v>10.57493</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>18.20522</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26.15347</v>
+      </c>
+      <c r="D112" t="n">
+        <v>46.3321</v>
+      </c>
+      <c r="E112" t="n">
+        <v>62.34604</v>
+      </c>
+      <c r="F112" t="n">
+        <v>75.89115</v>
+      </c>
+      <c r="G112" t="n">
+        <v>69.01683</v>
+      </c>
+      <c r="H112" t="n">
+        <v>63.59637</v>
+      </c>
+      <c r="I112" t="n">
+        <v>62.41726</v>
+      </c>
+      <c r="J112" t="n">
+        <v>58.73465</v>
+      </c>
+      <c r="K112" t="n">
+        <v>58.08111</v>
+      </c>
+      <c r="L112" t="n">
+        <v>62.30263</v>
+      </c>
+      <c r="M112" t="n">
+        <v>61.79196</v>
+      </c>
+      <c r="N112" t="n">
+        <v>63.98516</v>
+      </c>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="n">
+        <v>22.63251</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24.52125</v>
+      </c>
+      <c r="E113" t="n">
+        <v>26.99358</v>
+      </c>
+      <c r="F113" t="n">
+        <v>27.44383</v>
+      </c>
+      <c r="G113" t="n">
+        <v>28.02368</v>
+      </c>
+      <c r="H113" t="n">
+        <v>29.63007</v>
+      </c>
+      <c r="I113" t="n">
+        <v>28.98631</v>
+      </c>
+      <c r="J113" t="n">
+        <v>34.78804</v>
+      </c>
+      <c r="K113" t="n">
+        <v>39.1127</v>
+      </c>
+      <c r="L113" t="n">
+        <v>38.98286</v>
+      </c>
+      <c r="M113" t="n">
+        <v>37.07479</v>
+      </c>
+      <c r="N113" t="n">
+        <v>40.75877</v>
+      </c>
+      <c r="O113" t="n">
+        <v>38.45752</v>
+      </c>
+      <c r="P113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.18513</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.0804</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.15636</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.36969</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.74726</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.82939</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.98939</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.33788</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.38606</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3.57722</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3.73883</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4.14331</v>
+      </c>
+      <c r="O114" t="n">
+        <v>4.22516</v>
+      </c>
+      <c r="P114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.32616</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.37139</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.40601</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.42258</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.50399</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.49251</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.51503</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.50843</v>
+      </c>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115" t="n">
+        <v>0.7172</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.81415</v>
+      </c>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25.74227</v>
+      </c>
+      <c r="D116" t="n">
+        <v>25.047</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.40855</v>
+      </c>
+      <c r="F116" t="n">
+        <v>30.52997</v>
+      </c>
+      <c r="G116" t="n">
+        <v>29.96664</v>
+      </c>
+      <c r="H116" t="n">
+        <v>27.91557</v>
+      </c>
+      <c r="I116" t="n">
+        <v>28.58267</v>
+      </c>
+      <c r="J116" t="n">
+        <v>30.24552</v>
+      </c>
+      <c r="K116" t="n">
+        <v>33.71005</v>
+      </c>
+      <c r="L116" t="n">
+        <v>35.72051</v>
+      </c>
+      <c r="M116" t="n">
+        <v>37.13453</v>
+      </c>
+      <c r="N116" t="n">
+        <v>35.97491</v>
+      </c>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117" t="n">
+        <v>0.22137</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117" t="n">
+        <v>11.33538</v>
+      </c>
+      <c r="K117" t="n">
+        <v>13.18124</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.05913</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.20563</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.21856</v>
+      </c>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118" t="n">
+        <v>5.10688</v>
+      </c>
+      <c r="K118" t="n">
+        <v>5.70298</v>
+      </c>
+      <c r="L118" t="n">
+        <v>6.29994</v>
+      </c>
+      <c r="M118" t="n">
+        <v>6.51419</v>
+      </c>
+      <c r="N118" t="n">
+        <v>6.86006</v>
+      </c>
+      <c r="O118" t="n">
+        <v>7.47441</v>
+      </c>
+      <c r="P118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" t="n">
+        <v>19.84788</v>
+      </c>
+      <c r="D119" t="n">
+        <v>23.13591</v>
+      </c>
+      <c r="E119" t="n">
+        <v>22.77548</v>
+      </c>
+      <c r="F119" t="n">
+        <v>28.29759</v>
+      </c>
+      <c r="G119" t="n">
+        <v>25.04696</v>
+      </c>
+      <c r="H119" t="n">
+        <v>30.22184</v>
+      </c>
+      <c r="I119" t="n">
+        <v>28.6623</v>
+      </c>
+      <c r="J119" t="n">
+        <v>31.54155</v>
+      </c>
+      <c r="K119" t="n">
+        <v>30.71236</v>
+      </c>
+      <c r="L119" t="n">
+        <v>34.11323</v>
+      </c>
+      <c r="M119" t="n">
+        <v>36.48112</v>
+      </c>
+      <c r="N119" t="n">
+        <v>39.59956</v>
+      </c>
+      <c r="O119" t="n">
+        <v>41.21104</v>
+      </c>
+      <c r="P119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>16.27614</v>
+      </c>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120" t="n">
+        <v>42.86175</v>
+      </c>
+      <c r="P120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121" t="n">
+        <v>3.38212</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.9743</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.16256</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3.19425</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.9267</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.30093</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.73368</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3.80494</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3.86735</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4.37943</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4.74853</v>
+      </c>
+      <c r="O121" t="n">
+        <v>5.14448</v>
+      </c>
+      <c r="P121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.02747</v>
+      </c>
+      <c r="D122" t="n">
+        <v>17.10541</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15.84492</v>
+      </c>
+      <c r="F122" t="n">
+        <v>16.556</v>
+      </c>
+      <c r="G122" t="n">
+        <v>17.82233</v>
+      </c>
+      <c r="H122" t="n">
+        <v>21.33586</v>
+      </c>
+      <c r="I122" t="n">
+        <v>23.53246</v>
+      </c>
+      <c r="J122" t="n">
+        <v>24.53931</v>
+      </c>
+      <c r="K122" t="n">
+        <v>27.23933</v>
+      </c>
+      <c r="L122" t="n">
+        <v>32.19262</v>
+      </c>
+      <c r="M122" t="n">
+        <v>34.72646</v>
+      </c>
+      <c r="N122" t="n">
+        <v>36.70732</v>
+      </c>
+      <c r="O122" t="n">
+        <v>40.32104</v>
+      </c>
+      <c r="P122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="n">
+        <v>19.29516</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.09684</v>
+      </c>
+      <c r="E123" t="n">
+        <v>21.0693</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21.94156</v>
+      </c>
+      <c r="G123" t="n">
+        <v>22.76664</v>
+      </c>
+      <c r="H123" t="n">
+        <v>23.3147</v>
+      </c>
+      <c r="I123" t="n">
+        <v>23.79003</v>
+      </c>
+      <c r="J123" t="n">
+        <v>24.39092</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25.09616</v>
+      </c>
+      <c r="L123" t="n">
+        <v>25.65348</v>
+      </c>
+      <c r="M123" t="n">
+        <v>26.73939</v>
+      </c>
+      <c r="N123" t="n">
+        <v>27.68683</v>
+      </c>
+      <c r="O123" t="n">
+        <v>28.99449</v>
+      </c>
+      <c r="P123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="n">
+        <v>14.12186</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="n">
+        <v>32.52967</v>
+      </c>
+      <c r="D125" t="n">
+        <v>31.7273</v>
+      </c>
+      <c r="E125" t="n">
+        <v>32.20523</v>
+      </c>
+      <c r="F125" t="n">
+        <v>33.29884</v>
+      </c>
+      <c r="G125" t="n">
+        <v>34.35557</v>
+      </c>
+      <c r="H125" t="n">
+        <v>36.09843</v>
+      </c>
+      <c r="I125" t="n">
+        <v>39.40245</v>
+      </c>
+      <c r="J125" t="n">
+        <v>41.20459</v>
+      </c>
+      <c r="K125" t="n">
+        <v>39.9985</v>
+      </c>
+      <c r="L125" t="n">
+        <v>38.29286</v>
+      </c>
+      <c r="M125" t="n">
+        <v>38.14536</v>
+      </c>
+      <c r="N125" t="n">
+        <v>39.44804</v>
+      </c>
+      <c r="O125" t="n">
+        <v>40.10864</v>
+      </c>
+      <c r="P125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.17709</v>
+      </c>
+      <c r="D127" t="n">
+        <v>34.20376</v>
+      </c>
+      <c r="E127" t="n">
+        <v>35.79969</v>
+      </c>
+      <c r="F127" t="n">
+        <v>37.98429</v>
+      </c>
+      <c r="G127" t="n">
+        <v>40.78909</v>
+      </c>
+      <c r="H127" t="n">
+        <v>44.65731</v>
+      </c>
+      <c r="I127" t="n">
+        <v>47.53211</v>
+      </c>
+      <c r="J127" t="n">
+        <v>46.93434</v>
+      </c>
+      <c r="K127" t="n">
+        <v>48.46203</v>
+      </c>
+      <c r="L127" t="n">
+        <v>51.4514</v>
+      </c>
+      <c r="M127" t="n">
+        <v>53.81167</v>
+      </c>
+      <c r="N127" t="n">
+        <v>57.57916</v>
+      </c>
+      <c r="O127" t="n">
+        <v>61.10051</v>
+      </c>
+      <c r="P127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128" t="n">
+        <v>16.71044</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15.89396</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16.84081</v>
+      </c>
+      <c r="G128" t="n">
+        <v>19.81885</v>
+      </c>
+      <c r="H128" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="I128" t="n">
+        <v>26.84825</v>
+      </c>
+      <c r="J128" t="n">
+        <v>34.46343</v>
+      </c>
+      <c r="K128" t="n">
+        <v>42.70992</v>
+      </c>
+      <c r="L128" t="n">
+        <v>51.78555</v>
+      </c>
+      <c r="M128" t="n">
+        <v>55.53195</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.40778</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10.27369</v>
+      </c>
+      <c r="E129" t="n">
+        <v>10.21006</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10.70623</v>
+      </c>
+      <c r="G129" t="n">
+        <v>10.87945</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.59927</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12.19448</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11.76666</v>
+      </c>
+      <c r="K129" t="n">
+        <v>12.85362</v>
+      </c>
+      <c r="L129" t="n">
+        <v>13.45325</v>
+      </c>
+      <c r="M129" t="n">
+        <v>14.3189</v>
+      </c>
+      <c r="N129" t="n">
+        <v>16.15857</v>
+      </c>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.66636</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130" t="n">
+        <v>0.90611</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.14272</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.41529</v>
+      </c>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130" t="n">
+        <v>3.50367</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3.79617</v>
+      </c>
+      <c r="M130"/>
+      <c r="N130" t="n">
+        <v>4.85041</v>
+      </c>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131" t="n">
+        <v>10.33052</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131" t="n">
+        <v>10.14058</v>
+      </c>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131" t="n">
+        <v>13.81368</v>
+      </c>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132" t="n">
+        <v>7.0327</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.79907</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.16231</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132" t="n">
+        <v>6.87286</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6.55898</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132" t="n">
+        <v>9.3296</v>
+      </c>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.35054</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.66355</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5.38423</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5.44491</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6.40011</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8.06015</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8.54079</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10.39971</v>
+      </c>
+      <c r="K133" t="n">
+        <v>11.30563</v>
+      </c>
+      <c r="L133" t="n">
+        <v>11.21704</v>
+      </c>
+      <c r="M133" t="n">
+        <v>14.36489</v>
+      </c>
+      <c r="N133" t="n">
+        <v>14.49029</v>
+      </c>
+      <c r="O133"/>
+      <c r="P133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>52.54465</v>
+      </c>
+      <c r="D134" t="n">
+        <v>54.56146</v>
+      </c>
+      <c r="E134" t="n">
+        <v>55.4669</v>
+      </c>
+      <c r="F134" t="n">
+        <v>55.87475</v>
+      </c>
+      <c r="G134" t="n">
+        <v>57.00815</v>
+      </c>
+      <c r="H134" t="n">
+        <v>58.66376</v>
+      </c>
+      <c r="I134" t="n">
+        <v>59.66387</v>
+      </c>
+      <c r="J134" t="n">
+        <v>60.24711</v>
+      </c>
+      <c r="K134" t="n">
+        <v>60.8647</v>
+      </c>
+      <c r="L134" t="n">
+        <v>61.78514</v>
+      </c>
+      <c r="M134" t="n">
+        <v>64.32605</v>
+      </c>
+      <c r="N134" t="n">
+        <v>76.41607</v>
+      </c>
+      <c r="O134" t="n">
+        <v>77.34356</v>
+      </c>
+      <c r="P134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="n">
+        <v>66.15093</v>
+      </c>
+      <c r="D136" t="n">
+        <v>66.55252</v>
+      </c>
+      <c r="E136" t="n">
+        <v>67.23538</v>
+      </c>
+      <c r="F136" t="n">
+        <v>68.93803</v>
+      </c>
+      <c r="G136" t="n">
+        <v>83.56218</v>
+      </c>
+      <c r="H136" t="n">
+        <v>80.62834</v>
+      </c>
+      <c r="I136" t="n">
+        <v>78.71609</v>
+      </c>
+      <c r="J136" t="n">
+        <v>79.01181</v>
+      </c>
+      <c r="K136" t="n">
+        <v>78.16459</v>
+      </c>
+      <c r="L136" t="n">
+        <v>82.7309</v>
+      </c>
+      <c r="M136" t="n">
+        <v>82.55537</v>
+      </c>
+      <c r="N136" t="n">
+        <v>80.78135</v>
+      </c>
+      <c r="O136" t="n">
+        <v>79.77627</v>
+      </c>
+      <c r="P136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137" t="n">
+        <v>17.57105</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17.85635</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.94656</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.13708</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.15111</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.0693</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.20909</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.45036</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.49683</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1.55035</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.75417</v>
+      </c>
+      <c r="P138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139" t="n">
+        <v>9.64106</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9.85305</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10.40504</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="n">
+        <v>69.34229</v>
+      </c>
+      <c r="D142" t="n">
+        <v>70.27974</v>
+      </c>
+      <c r="E142" t="n">
+        <v>73.3761</v>
+      </c>
+      <c r="F142" t="n">
+        <v>79.11961</v>
+      </c>
+      <c r="G142" t="n">
+        <v>79.28231</v>
+      </c>
+      <c r="H142" t="n">
+        <v>78.56747</v>
+      </c>
+      <c r="I142" t="n">
+        <v>77.68351</v>
+      </c>
+      <c r="J142" t="n">
+        <v>75.37656</v>
+      </c>
+      <c r="K142" t="n">
+        <v>72.25778</v>
+      </c>
+      <c r="L142" t="n">
+        <v>72.59215</v>
+      </c>
+      <c r="M142" t="n">
+        <v>72.79106</v>
+      </c>
+      <c r="N142" t="n">
+        <v>73.08579</v>
+      </c>
+      <c r="O142" t="n">
+        <v>74.10112</v>
+      </c>
+      <c r="P142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>15.04269</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15.11176</v>
+      </c>
+      <c r="G143" t="n">
+        <v>16.68325</v>
+      </c>
+      <c r="H143" t="n">
+        <v>18.9603</v>
+      </c>
+      <c r="I143" t="n">
+        <v>21.28309</v>
+      </c>
+      <c r="J143" t="n">
+        <v>21.06315</v>
+      </c>
+      <c r="K143" t="n">
+        <v>20.56425</v>
+      </c>
+      <c r="L143" t="n">
+        <v>24.162</v>
+      </c>
+      <c r="M143" t="n">
+        <v>24.74616</v>
+      </c>
+      <c r="N143" t="n">
+        <v>28.13726</v>
+      </c>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144" t="n">
+        <v>2.60502</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3.2648</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4.72976</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.78288</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5.39025</v>
+      </c>
+      <c r="K144" t="n">
+        <v>5.36803</v>
+      </c>
+      <c r="L144" t="n">
+        <v>6.63953</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144" t="n">
+        <v>8.31155</v>
+      </c>
+      <c r="O144" t="n">
+        <v>9.52802</v>
+      </c>
+      <c r="P144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="n">
+        <v>40.63989</v>
+      </c>
+      <c r="D145" t="n">
+        <v>37.03704</v>
+      </c>
+      <c r="E145" t="n">
+        <v>37.87167</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="n">
+        <v>23.86342</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26.11632</v>
+      </c>
+      <c r="E146" t="n">
+        <v>28.03629</v>
+      </c>
+      <c r="F146" t="n">
+        <v>32.29959</v>
+      </c>
+      <c r="G146" t="n">
+        <v>37.05906</v>
+      </c>
+      <c r="H146" t="n">
+        <v>41.33782</v>
+      </c>
+      <c r="I146" t="n">
+        <v>44.22697</v>
+      </c>
+      <c r="J146" t="n">
+        <v>48.90114</v>
+      </c>
+      <c r="K146" t="n">
+        <v>50.65409</v>
+      </c>
+      <c r="L146" t="n">
+        <v>48.96578</v>
+      </c>
+      <c r="M146" t="n">
+        <v>50.06136</v>
+      </c>
+      <c r="N146" t="n">
+        <v>51.30829</v>
+      </c>
+      <c r="O146" t="n">
+        <v>49.06407</v>
+      </c>
+      <c r="P146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="n">
+        <v>41.12896</v>
+      </c>
+      <c r="D147" t="n">
+        <v>40.59614</v>
+      </c>
+      <c r="E147" t="n">
+        <v>40.16633</v>
+      </c>
+      <c r="F147" t="n">
+        <v>44.00233</v>
+      </c>
+      <c r="G147" t="n">
+        <v>43.07854</v>
+      </c>
+      <c r="H147" t="n">
+        <v>41.85507</v>
+      </c>
+      <c r="I147" t="n">
+        <v>42.88646</v>
+      </c>
+      <c r="J147" t="n">
+        <v>43.0178</v>
+      </c>
+      <c r="K147" t="n">
+        <v>43.12349</v>
+      </c>
+      <c r="L147" t="n">
+        <v>43.03004</v>
+      </c>
+      <c r="M147" t="n">
+        <v>43.91579</v>
+      </c>
+      <c r="N147" t="n">
+        <v>41.78192</v>
+      </c>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.71809</v>
+      </c>
+      <c r="D149" t="n">
+        <v>17.58322</v>
+      </c>
+      <c r="E149" t="n">
+        <v>25.75047</v>
+      </c>
+      <c r="F149" t="n">
+        <v>24.49355</v>
+      </c>
+      <c r="G149" t="n">
+        <v>24.76344</v>
+      </c>
+      <c r="H149" t="n">
+        <v>25.43059</v>
+      </c>
+      <c r="I149"/>
+      <c r="J149" t="n">
+        <v>28.67236</v>
+      </c>
+      <c r="K149" t="n">
+        <v>34.01438</v>
+      </c>
+      <c r="L149" t="n">
+        <v>36.5878</v>
+      </c>
+      <c r="M149" t="n">
+        <v>34.51367</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150" t="n">
+        <v>31.40779</v>
+      </c>
+      <c r="E150" t="n">
+        <v>31.51531</v>
+      </c>
+      <c r="F150" t="n">
+        <v>31.5712</v>
+      </c>
+      <c r="G150" t="n">
+        <v>33.33368</v>
+      </c>
+      <c r="H150" t="n">
+        <v>33.36231</v>
+      </c>
+      <c r="I150" t="n">
+        <v>34.59818</v>
+      </c>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150" t="n">
+        <v>42.63866</v>
+      </c>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151" t="n">
+        <v>30.37105</v>
+      </c>
+      <c r="E151" t="n">
+        <v>30.19553</v>
+      </c>
+      <c r="F151" t="n">
+        <v>29.08678</v>
+      </c>
+      <c r="G151" t="n">
+        <v>28.37106</v>
+      </c>
+      <c r="H151" t="n">
+        <v>27.52297</v>
+      </c>
+      <c r="I151" t="n">
+        <v>27.84935</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>28.84396</v>
+      </c>
+      <c r="L151" t="n">
+        <v>28.19964</v>
+      </c>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="n">
+        <v>50.28599</v>
+      </c>
+      <c r="D152" t="n">
+        <v>55.44863</v>
+      </c>
+      <c r="E152" t="n">
+        <v>58.40031</v>
+      </c>
+      <c r="F152" t="n">
+        <v>59.83943</v>
+      </c>
+      <c r="G152" t="n">
+        <v>61.23115</v>
+      </c>
+      <c r="H152" t="n">
+        <v>63.60082</v>
+      </c>
+      <c r="I152" t="n">
+        <v>65.18598</v>
+      </c>
+      <c r="J152" t="n">
+        <v>66.6904</v>
+      </c>
+      <c r="K152" t="n">
+        <v>69.3607</v>
+      </c>
+      <c r="L152" t="n">
+        <v>71.19324</v>
+      </c>
+      <c r="M152" t="n">
+        <v>73.52072</v>
+      </c>
+      <c r="N152" t="n">
+        <v>73.5097</v>
+      </c>
+      <c r="O152" t="n">
+        <v>73.19394</v>
+      </c>
+      <c r="P152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="n">
+        <v>47.55606</v>
+      </c>
+      <c r="D153" t="n">
+        <v>50.37983</v>
+      </c>
+      <c r="E153" t="n">
+        <v>52.76117</v>
+      </c>
+      <c r="F153" t="n">
+        <v>54.81727</v>
+      </c>
+      <c r="G153" t="n">
+        <v>55.71149</v>
+      </c>
+      <c r="H153" t="n">
+        <v>55.56338</v>
+      </c>
+      <c r="I153" t="n">
+        <v>55.59925</v>
+      </c>
+      <c r="J153" t="n">
+        <v>57.64466</v>
+      </c>
+      <c r="K153" t="n">
+        <v>61.37144</v>
+      </c>
+      <c r="L153" t="n">
+        <v>62.58633</v>
+      </c>
+      <c r="M153" t="n">
+        <v>65.94793</v>
+      </c>
+      <c r="N153"/>
+      <c r="O153" t="n">
+        <v>68.86158</v>
+      </c>
+      <c r="P153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154" t="n">
+        <v>71.66659</v>
+      </c>
+      <c r="K154" t="n">
+        <v>77.87124</v>
+      </c>
+      <c r="L154" t="n">
+        <v>81.26384</v>
+      </c>
+      <c r="M154" t="n">
+        <v>86.34675</v>
+      </c>
+      <c r="N154" t="n">
+        <v>86.46033</v>
+      </c>
+      <c r="O154"/>
+      <c r="P154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155" t="n">
+        <v>19.17956</v>
+      </c>
+      <c r="E155" t="n">
+        <v>16.44719</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15.33608</v>
+      </c>
+      <c r="G155" t="n">
+        <v>17.80551</v>
+      </c>
+      <c r="H155" t="n">
+        <v>18.43005</v>
+      </c>
+      <c r="I155" t="n">
+        <v>19.27864</v>
+      </c>
+      <c r="J155" t="n">
+        <v>13.29162</v>
+      </c>
+      <c r="K155" t="n">
+        <v>11.3693</v>
+      </c>
+      <c r="L155" t="n">
+        <v>10.08617</v>
+      </c>
+      <c r="M155" t="n">
+        <v>9.99581</v>
+      </c>
+      <c r="N155" t="n">
+        <v>11.69311</v>
+      </c>
+      <c r="O155" t="n">
+        <v>12.14547</v>
+      </c>
+      <c r="P155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="n">
+        <v>24.11611</v>
+      </c>
+      <c r="D156" t="n">
+        <v>29.003</v>
+      </c>
+      <c r="E156" t="n">
+        <v>32.94613</v>
+      </c>
+      <c r="F156" t="n">
+        <v>38.03346</v>
+      </c>
+      <c r="G156" t="n">
+        <v>41.58508</v>
+      </c>
+      <c r="H156" t="n">
+        <v>44.90378</v>
+      </c>
+      <c r="I156" t="n">
+        <v>50.02813</v>
+      </c>
+      <c r="J156" t="n">
+        <v>53.95585</v>
+      </c>
+      <c r="K156" t="n">
+        <v>59.59186</v>
+      </c>
+      <c r="L156" t="n">
+        <v>61.29571</v>
+      </c>
+      <c r="M156" t="n">
+        <v>56.7765</v>
+      </c>
+      <c r="N156" t="n">
+        <v>51.59729</v>
+      </c>
+      <c r="O156"/>
+      <c r="P156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" t="n">
+        <v>55.40109</v>
+      </c>
+      <c r="D157" t="n">
+        <v>61.26443</v>
+      </c>
+      <c r="E157" t="n">
+        <v>66.65435</v>
+      </c>
+      <c r="F157" t="n">
+        <v>66.50214</v>
+      </c>
+      <c r="G157" t="n">
+        <v>70.51044</v>
+      </c>
+      <c r="H157" t="n">
+        <v>72.59023</v>
+      </c>
+      <c r="I157" t="n">
+        <v>72.89024</v>
+      </c>
+      <c r="J157" t="n">
+        <v>74.12998</v>
+      </c>
+      <c r="K157" t="n">
+        <v>75.01527</v>
+      </c>
+      <c r="L157" t="n">
+        <v>75.47462</v>
+      </c>
+      <c r="M157"/>
+      <c r="N157" t="n">
+        <v>76.53</v>
+      </c>
+      <c r="O157" t="n">
+        <v>76.14355</v>
+      </c>
+      <c r="P157"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.20299</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.53726</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.81209</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.20443</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.60759</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2.76724</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.58709</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.71235</v>
+      </c>
+      <c r="K158" t="n">
+        <v>4.05255</v>
+      </c>
+      <c r="L158" t="n">
+        <v>4.98875</v>
+      </c>
+      <c r="M158" t="n">
+        <v>5.77162</v>
+      </c>
+      <c r="N158" t="n">
+        <v>7.09849</v>
+      </c>
+      <c r="O158" t="n">
+        <v>7.21898</v>
+      </c>
+      <c r="P158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159" t="n">
+        <v>18.22618</v>
+      </c>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160" t="n">
+        <v>13.88298</v>
+      </c>
+      <c r="H160" t="n">
+        <v>13.10703</v>
+      </c>
+      <c r="I160" t="n">
+        <v>9.55848</v>
+      </c>
+      <c r="J160" t="n">
+        <v>8.66369</v>
+      </c>
+      <c r="K160" t="n">
+        <v>15.94777</v>
+      </c>
+      <c r="L160" t="n">
+        <v>17.6504</v>
+      </c>
+      <c r="M160" t="n">
+        <v>12.49288</v>
+      </c>
+      <c r="N160" t="n">
+        <v>16.3404</v>
+      </c>
+      <c r="O160" t="n">
+        <v>10.17841</v>
+      </c>
+      <c r="P160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.56238</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164" t="n">
+        <v>64.84429</v>
+      </c>
+      <c r="N164" t="n">
+        <v>64.29558</v>
+      </c>
+      <c r="O164" t="n">
+        <v>59.849</v>
+      </c>
+      <c r="P164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165" t="n">
+        <v>3.89036</v>
+      </c>
+      <c r="M165" t="n">
+        <v>4.20417</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165" t="n">
+        <v>7.67444</v>
+      </c>
+      <c r="P165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" t="n">
+        <v>22.63417</v>
+      </c>
+      <c r="D166" t="n">
+        <v>23.94357</v>
+      </c>
+      <c r="E166" t="n">
+        <v>23.37281</v>
+      </c>
+      <c r="F166" t="n">
+        <v>26.46539</v>
+      </c>
+      <c r="G166" t="n">
+        <v>27.96406</v>
+      </c>
+      <c r="H166" t="n">
+        <v>28.71239</v>
+      </c>
+      <c r="I166" t="n">
+        <v>29.69872</v>
+      </c>
+      <c r="J166" t="n">
+        <v>29.65088</v>
+      </c>
+      <c r="K166" t="n">
+        <v>30.11634</v>
+      </c>
+      <c r="L166" t="n">
+        <v>31.2906</v>
+      </c>
+      <c r="M166" t="n">
+        <v>37.33879</v>
+      </c>
+      <c r="N166" t="n">
+        <v>43.18187</v>
+      </c>
+      <c r="O166" t="n">
+        <v>50.93608</v>
+      </c>
+      <c r="P166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167" t="n">
+        <v>5.13949</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5.64497</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.7928</v>
+      </c>
+      <c r="J167" t="n">
+        <v>6.41868</v>
+      </c>
+      <c r="K167" t="n">
+        <v>8.00458</v>
+      </c>
+      <c r="L167" t="n">
+        <v>8.03581</v>
+      </c>
+      <c r="M167" t="n">
+        <v>7.62999</v>
+      </c>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168" t="n">
+        <v>47.993</v>
+      </c>
+      <c r="K168" t="n">
+        <v>48.66538</v>
+      </c>
+      <c r="L168" t="n">
+        <v>49.84967</v>
+      </c>
+      <c r="M168" t="n">
+        <v>49.08272</v>
+      </c>
+      <c r="N168" t="n">
+        <v>50.36518</v>
+      </c>
+      <c r="O168" t="n">
+        <v>52.37703</v>
+      </c>
+      <c r="P168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169" t="n">
+        <v>2.55405</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.41659</v>
+      </c>
+      <c r="P169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.62316</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.07895</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.03433</v>
+      </c>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" t="n">
+        <v>28.43127</v>
+      </c>
+      <c r="D173" t="n">
+        <v>30.08351</v>
+      </c>
+      <c r="E173" t="n">
+        <v>32.11241</v>
+      </c>
+      <c r="F173" t="n">
+        <v>33.9356</v>
+      </c>
+      <c r="G173" t="n">
+        <v>36.03493</v>
+      </c>
+      <c r="H173" t="n">
+        <v>40.39136</v>
+      </c>
+      <c r="I173" t="n">
+        <v>44.75797</v>
+      </c>
+      <c r="J173" t="n">
+        <v>49.94615</v>
+      </c>
+      <c r="K173" t="n">
+        <v>53.2181</v>
+      </c>
+      <c r="L173" t="n">
+        <v>55.20573</v>
+      </c>
+      <c r="M173" t="n">
+        <v>55.99003</v>
+      </c>
+      <c r="N173" t="n">
+        <v>55.07142</v>
+      </c>
+      <c r="O173" t="n">
+        <v>55.10905</v>
+      </c>
+      <c r="P173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" t="n">
+        <v>55.11092</v>
+      </c>
+      <c r="D174" t="n">
+        <v>60.33394</v>
+      </c>
+      <c r="E174" t="n">
+        <v>66.3009</v>
+      </c>
+      <c r="F174" t="n">
+        <v>69.14746</v>
+      </c>
+      <c r="G174" t="n">
+        <v>72.68094</v>
+      </c>
+      <c r="H174" t="n">
+        <v>79.70795</v>
+      </c>
+      <c r="I174" t="n">
+        <v>83.14008</v>
+      </c>
+      <c r="J174" t="n">
+        <v>84.9052</v>
+      </c>
+      <c r="K174" t="n">
+        <v>85.54586</v>
+      </c>
+      <c r="L174" t="n">
+        <v>86.119</v>
+      </c>
+      <c r="M174" t="n">
+        <v>88.46797</v>
+      </c>
+      <c r="N174" t="n">
+        <v>85.08911</v>
+      </c>
+      <c r="O174" t="n">
+        <v>86.0247</v>
+      </c>
+      <c r="P174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" t="n">
+        <v>78.82827</v>
+      </c>
+      <c r="D178" t="n">
+        <v>82.73275</v>
+      </c>
+      <c r="E178" t="n">
+        <v>85.75135</v>
+      </c>
+      <c r="F178" t="n">
+        <v>87.76533</v>
+      </c>
+      <c r="G178" t="n">
+        <v>90.25742</v>
+      </c>
+      <c r="H178" t="n">
+        <v>93.47805</v>
+      </c>
+      <c r="I178" t="n">
+        <v>97.50587</v>
+      </c>
+      <c r="J178" t="n">
+        <v>100.81131</v>
+      </c>
+      <c r="K178" t="n">
+        <v>101.75924</v>
+      </c>
+      <c r="L178" t="n">
+        <v>101.56675</v>
+      </c>
+      <c r="M178" t="n">
+        <v>100.95611</v>
+      </c>
+      <c r="N178" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="O178" t="n">
+        <v>98.37919</v>
+      </c>
+      <c r="P178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" t="n">
+        <v>58.74018</v>
+      </c>
+      <c r="D180" t="n">
+        <v>60.77522</v>
+      </c>
+      <c r="E180" t="n">
+        <v>62.13234</v>
+      </c>
+      <c r="F180" t="n">
+        <v>64.06026</v>
+      </c>
+      <c r="G180" t="n">
+        <v>65.79629</v>
+      </c>
+      <c r="H180" t="n">
+        <v>66.62166</v>
+      </c>
+      <c r="I180" t="n">
+        <v>67.9969</v>
+      </c>
+      <c r="J180" t="n">
+        <v>68.99323</v>
+      </c>
+      <c r="K180" t="n">
+        <v>70.71155</v>
+      </c>
+      <c r="L180" t="n">
+        <v>73.18191</v>
+      </c>
+      <c r="M180" t="n">
+        <v>78.08628</v>
+      </c>
+      <c r="N180" t="n">
+        <v>82.61555</v>
+      </c>
+      <c r="O180" t="n">
+        <v>84.56586</v>
+      </c>
+      <c r="P180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181" t="n">
+        <v>16.04246</v>
+      </c>
+      <c r="N181" t="n">
+        <v>15.0175</v>
+      </c>
+      <c r="O181" t="n">
+        <v>16.96746</v>
+      </c>
+      <c r="P181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183" t="n">
+        <v>12.07816</v>
+      </c>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.45921</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.28869</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.53612</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4.56288</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.46114</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4.75181</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4.44382</v>
+      </c>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184" t="n">
+        <v>5.96363</v>
+      </c>
+      <c r="O184"/>
+      <c r="P184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" t="n">
+        <v>67.10568</v>
+      </c>
+      <c r="D185" t="n">
+        <v>70.29635</v>
+      </c>
+      <c r="E185" t="n">
+        <v>75.3067</v>
+      </c>
+      <c r="F185" t="n">
+        <v>81.44551</v>
+      </c>
+      <c r="G185" t="n">
+        <v>83.79127</v>
+      </c>
+      <c r="H185" t="n">
+        <v>81.9836</v>
+      </c>
+      <c r="I185" t="n">
+        <v>79.34685</v>
+      </c>
+      <c r="J185" t="n">
+        <v>74.95534</v>
+      </c>
+      <c r="K185" t="n">
+        <v>71.07727</v>
+      </c>
+      <c r="L185" t="n">
+        <v>71.38803</v>
+      </c>
+      <c r="M185" t="n">
+        <v>74.63097</v>
+      </c>
+      <c r="N185" t="n">
+        <v>73.94509</v>
+      </c>
+      <c r="O185" t="n">
+        <v>70.02567</v>
+      </c>
+      <c r="P185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="n">
+        <v>37.69381</v>
+      </c>
+      <c r="D186" t="n">
+        <v>39.68128</v>
+      </c>
+      <c r="E186" t="n">
+        <v>40.85155</v>
+      </c>
+      <c r="F186" t="n">
+        <v>43.94383</v>
+      </c>
+      <c r="G186" t="n">
+        <v>45.51139</v>
+      </c>
+      <c r="H186" t="n">
+        <v>45.71889</v>
+      </c>
+      <c r="I186" t="n">
+        <v>46.44491</v>
+      </c>
+      <c r="J186" t="n">
+        <v>47.12323</v>
+      </c>
+      <c r="K186" t="n">
+        <v>48.68194</v>
+      </c>
+      <c r="L186" t="n">
+        <v>49.9725</v>
+      </c>
+      <c r="M186" t="n">
+        <v>52.75723</v>
+      </c>
+      <c r="N186" t="n">
+        <v>54.33827</v>
+      </c>
+      <c r="O186" t="n">
+        <v>55.5619</v>
+      </c>
+      <c r="P186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187" t="n">
+        <v>12.37874</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12.98673</v>
+      </c>
+      <c r="G187" t="n">
+        <v>15.0151</v>
+      </c>
+      <c r="H187" t="n">
+        <v>18.21022</v>
+      </c>
+      <c r="I187" t="n">
+        <v>20.91125</v>
+      </c>
+      <c r="J187" t="n">
+        <v>22.59816</v>
+      </c>
+      <c r="K187" t="n">
+        <v>24.20384</v>
+      </c>
+      <c r="L187" t="n">
+        <v>24.21231</v>
+      </c>
+      <c r="M187" t="n">
+        <v>25.72203</v>
+      </c>
+      <c r="N187" t="n">
+        <v>25.63541</v>
+      </c>
+      <c r="O187"/>
+      <c r="P187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" t="n">
+        <v>18.26356</v>
+      </c>
+      <c r="D188" t="n">
+        <v>17.69055</v>
+      </c>
+      <c r="E188" t="n">
+        <v>17.8046</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19.10845</v>
+      </c>
+      <c r="G188" t="n">
+        <v>20.37567</v>
+      </c>
+      <c r="H188" t="n">
+        <v>20.964</v>
+      </c>
+      <c r="I188" t="n">
+        <v>22.05909</v>
+      </c>
+      <c r="J188" t="n">
+        <v>22.76433</v>
+      </c>
+      <c r="K188" t="n">
+        <v>23.01282</v>
+      </c>
+      <c r="L188" t="n">
+        <v>22.62217</v>
+      </c>
+      <c r="M188" t="n">
+        <v>22.69801</v>
+      </c>
+      <c r="N188" t="n">
+        <v>22.01476</v>
+      </c>
+      <c r="O188" t="n">
+        <v>22.47026</v>
+      </c>
+      <c r="P188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.67551</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.69332</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.72508</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.9284</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.24998</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.45967</v>
+      </c>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189" t="n">
+        <v>2.10866</v>
+      </c>
+      <c r="N189"/>
+      <c r="O189" t="n">
+        <v>3.91904</v>
+      </c>
+      <c r="P189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190" t="n">
+        <v>35.14095</v>
+      </c>
+      <c r="D190" t="n">
+        <v>39.22846</v>
+      </c>
+      <c r="E190" t="n">
+        <v>40.0442</v>
+      </c>
+      <c r="F190" t="n">
+        <v>40.88762</v>
+      </c>
+      <c r="G190" t="n">
+        <v>41.87393</v>
+      </c>
+      <c r="H190" t="n">
+        <v>44.17739</v>
+      </c>
+      <c r="I190" t="n">
+        <v>44.15963</v>
+      </c>
+      <c r="J190" t="n">
+        <v>48.11159</v>
+      </c>
+      <c r="K190" t="n">
+        <v>47.73226</v>
+      </c>
+      <c r="L190" t="n">
+        <v>48.64748</v>
+      </c>
+      <c r="M190" t="n">
+        <v>50.02553</v>
+      </c>
+      <c r="N190" t="n">
+        <v>52.58112</v>
+      </c>
+      <c r="O190" t="n">
+        <v>51.40475</v>
+      </c>
+      <c r="P190" t="n">
+        <v>51.23354</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191" t="n">
+        <v>8.56607</v>
+      </c>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
+      <c r="L191" t="n">
+        <v>16.46423</v>
+      </c>
+      <c r="M191" t="n">
+        <v>17.73506</v>
+      </c>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192" t="n">
+        <v>5.01831</v>
+      </c>
+      <c r="J192" t="n">
+        <v>5.66543</v>
+      </c>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192" t="n">
+        <v>9.11702</v>
+      </c>
+      <c r="N192" t="n">
+        <v>10.14691</v>
+      </c>
+      <c r="O192" t="n">
+        <v>10.31276</v>
+      </c>
+      <c r="P192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.85778</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.16743</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.57621</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6.348</v>
+      </c>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.06039</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.43571</v>
+      </c>
+      <c r="E194" t="n">
+        <v>8.70332</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8.77808</v>
+      </c>
+      <c r="G194" t="n">
+        <v>11.95271</v>
+      </c>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" t="n">
+        <v>18.83266</v>
+      </c>
+      <c r="D195" t="n">
+        <v>21.20027</v>
+      </c>
+      <c r="E195" t="n">
+        <v>22.67412</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25.9802</v>
+      </c>
+      <c r="G195" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="H195" t="n">
+        <v>29.94718</v>
+      </c>
+      <c r="I195" t="n">
+        <v>30.99951</v>
+      </c>
+      <c r="J195" t="n">
+        <v>31.07071</v>
+      </c>
+      <c r="K195" t="n">
+        <v>33.51222</v>
+      </c>
+      <c r="L195" t="n">
+        <v>34.56495</v>
+      </c>
+      <c r="M195" t="n">
+        <v>36.05527</v>
+      </c>
+      <c r="N195" t="n">
+        <v>35.22289</v>
+      </c>
+      <c r="O195" t="n">
+        <v>35.19931</v>
+      </c>
+      <c r="P195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196" t="n">
+        <v>25.26073</v>
+      </c>
+      <c r="E196" t="n">
+        <v>26.19813</v>
+      </c>
+      <c r="F196" t="n">
+        <v>29.83509</v>
+      </c>
+      <c r="G196" t="n">
+        <v>30.6362</v>
+      </c>
+      <c r="H196" t="n">
+        <v>32.76438</v>
+      </c>
+      <c r="I196" t="n">
+        <v>36.58434</v>
+      </c>
+      <c r="J196" t="n">
+        <v>38.46531</v>
+      </c>
+      <c r="K196" t="n">
+        <v>39.87486</v>
+      </c>
+      <c r="L196" t="n">
+        <v>46.12795</v>
+      </c>
+      <c r="M196" t="n">
+        <v>55.90155</v>
+      </c>
+      <c r="N196" t="n">
+        <v>60.6836</v>
+      </c>
+      <c r="O196" t="n">
+        <v>69.38549</v>
+      </c>
+      <c r="P196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>398</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198" t="n">
+        <v>0.07605</v>
+      </c>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.59394</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.80495</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.46239</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3.69115</v>
+      </c>
+      <c r="G201" t="n">
+        <v>3.5601</v>
+      </c>
+      <c r="H201"/>
+      <c r="I201" t="n">
+        <v>3.46287</v>
+      </c>
+      <c r="J201"/>
+      <c r="K201" t="n">
+        <v>3.76375</v>
+      </c>
+      <c r="L201" t="n">
+        <v>4.17587</v>
+      </c>
+      <c r="M201"/>
+      <c r="N201" t="n">
+        <v>9.05573</v>
+      </c>
+      <c r="O201"/>
+      <c r="P201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202" t="n">
+        <v>48.72779</v>
+      </c>
+      <c r="D202" t="n">
+        <v>51.97728</v>
+      </c>
+      <c r="E202" t="n">
+        <v>56.47875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>60.49191</v>
+      </c>
+      <c r="G202" t="n">
+        <v>64.85601</v>
+      </c>
+      <c r="H202" t="n">
+        <v>68.66693</v>
+      </c>
+      <c r="I202" t="n">
+        <v>72.7671</v>
+      </c>
+      <c r="J202" t="n">
+        <v>75.44396</v>
+      </c>
+      <c r="K202" t="n">
+        <v>77.34882</v>
+      </c>
+      <c r="L202" t="n">
+        <v>78.01468</v>
+      </c>
+      <c r="M202" t="n">
+        <v>76.65549</v>
+      </c>
+      <c r="N202" t="n">
+        <v>79.24941</v>
+      </c>
+      <c r="O202" t="n">
+        <v>79.70165</v>
+      </c>
+      <c r="P202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203" t="n">
+        <v>58.08684</v>
+      </c>
+      <c r="D203" t="n">
+        <v>58.87527</v>
+      </c>
+      <c r="E203" t="n">
+        <v>62.15572</v>
+      </c>
+      <c r="F203" t="n">
+        <v>61.65748</v>
+      </c>
+      <c r="G203" t="n">
+        <v>58.98261</v>
+      </c>
+      <c r="H203" t="n">
+        <v>58.6846</v>
+      </c>
+      <c r="I203" t="n">
+        <v>58.91687</v>
+      </c>
+      <c r="J203" t="n">
+        <v>58.68982</v>
+      </c>
+      <c r="K203" t="n">
+        <v>57.24696</v>
+      </c>
+      <c r="L203" t="n">
+        <v>58.99213</v>
+      </c>
+      <c r="M203" t="n">
+        <v>60.50796</v>
+      </c>
+      <c r="N203" t="n">
+        <v>61.16683</v>
+      </c>
+      <c r="O203" t="n">
+        <v>61.88096</v>
+      </c>
+      <c r="P203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" t="n">
+        <v>34.34268</v>
+      </c>
+      <c r="D204" t="n">
+        <v>37.55541</v>
+      </c>
+      <c r="E204" t="n">
+        <v>39.26434</v>
+      </c>
+      <c r="F204" t="n">
+        <v>41.1374</v>
+      </c>
+      <c r="G204" t="n">
+        <v>42.39081</v>
+      </c>
+      <c r="H204" t="n">
+        <v>45.32459</v>
+      </c>
+      <c r="I204" t="n">
+        <v>46.01796</v>
+      </c>
+      <c r="J204" t="n">
+        <v>63.71429</v>
+      </c>
+      <c r="K204" t="n">
+        <v>64.59832</v>
+      </c>
+      <c r="L204" t="n">
+        <v>63.23914</v>
+      </c>
+      <c r="M204" t="n">
+        <v>63.15235</v>
+      </c>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" t="n">
+        <v>67.84923</v>
+      </c>
+      <c r="D205" t="n">
+        <v>68.61805</v>
+      </c>
+      <c r="E205" t="n">
+        <v>78.7994</v>
+      </c>
+      <c r="F205" t="n">
+        <v>80.66302</v>
+      </c>
+      <c r="G205" t="n">
+        <v>80.742</v>
+      </c>
+      <c r="H205" t="n">
+        <v>81.31697</v>
+      </c>
+      <c r="I205" t="n">
+        <v>81.2776</v>
+      </c>
+      <c r="J205" t="n">
+        <v>82.25604</v>
+      </c>
+      <c r="K205" t="n">
+        <v>84.21237</v>
+      </c>
+      <c r="L205" t="n">
+        <v>87.73228</v>
+      </c>
+      <c r="M205" t="n">
+        <v>93.29339</v>
+      </c>
+      <c r="N205" t="n">
+        <v>95.33196</v>
+      </c>
+      <c r="O205" t="n">
+        <v>94.2767</v>
+      </c>
+      <c r="P205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12.61705</v>
+      </c>
+      <c r="D206" t="n">
+        <v>13.08292</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13.72589</v>
+      </c>
+      <c r="F206" t="n">
+        <v>14.07078</v>
+      </c>
+      <c r="G206" t="n">
+        <v>14.41435</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9.895</v>
+      </c>
+      <c r="I206" t="n">
+        <v>10.10963</v>
+      </c>
+      <c r="J206" t="n">
+        <v>10.05502</v>
+      </c>
+      <c r="K206" t="n">
+        <v>10.12143</v>
+      </c>
+      <c r="L206" t="n">
+        <v>9.94655</v>
+      </c>
+      <c r="M206"/>
+      <c r="N206" t="n">
+        <v>8.87381</v>
+      </c>
+      <c r="O206"/>
+      <c r="P206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.82954</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.77327</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.78379</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4.69127</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4.74393</v>
+      </c>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208" t="n">
+        <v>28.25935</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="n">
+        <v>38.04859</v>
+      </c>
+      <c r="F208" t="n">
+        <v>39.62945</v>
+      </c>
+      <c r="G208" t="n">
+        <v>41.53703</v>
+      </c>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208" t="n">
+        <v>78.13466</v>
+      </c>
+      <c r="L208" t="n">
+        <v>78.10754</v>
+      </c>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9.32551</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9.38302</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9.62983</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10.00931</v>
+      </c>
+      <c r="G209"/>
+      <c r="H209" t="n">
+        <v>15.87791</v>
+      </c>
+      <c r="I209" t="n">
+        <v>16.48521</v>
+      </c>
+      <c r="J209" t="n">
+        <v>18.17133</v>
+      </c>
+      <c r="K209" t="n">
+        <v>18.74038</v>
+      </c>
+      <c r="L209" t="n">
+        <v>19.86936</v>
+      </c>
+      <c r="M209" t="n">
+        <v>22.385</v>
+      </c>
+      <c r="N209" t="n">
+        <v>24.4293</v>
+      </c>
+      <c r="O209" t="n">
+        <v>24.59961</v>
+      </c>
+      <c r="P209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" t="s">
+        <v>424</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211" t="n">
+        <v>10.56133</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10.03606</v>
+      </c>
+      <c r="G211" t="n">
+        <v>9.52827</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9.50658</v>
+      </c>
+      <c r="I211" t="n">
+        <v>9.2007</v>
+      </c>
+      <c r="J211" t="n">
+        <v>10.51073</v>
+      </c>
+      <c r="K211" t="n">
+        <v>10.77581</v>
+      </c>
+      <c r="L211" t="n">
+        <v>11.37982</v>
+      </c>
+      <c r="M211" t="n">
+        <v>10.86531</v>
+      </c>
+      <c r="N211" t="n">
+        <v>10.28643</v>
+      </c>
+      <c r="O211"/>
+      <c r="P211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.39038</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212"/>
+      <c r="P212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213" t="n">
+        <v>6.21249</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6.02176</v>
+      </c>
+      <c r="O213" t="n">
+        <v>5.94417</v>
+      </c>
+      <c r="P213"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/university-college-enrolment/university-college-enrolment.xlsx
+++ b/user-data/university-college-enrolment/university-college-enrolment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -1376,7 +1376,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1809,6 +1812,11 @@
         <v>455</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/university-college-enrolment/university-college-enrolment.xlsx
+++ b/user-data/university-college-enrolment/university-college-enrolment.xlsx
@@ -71,7 +71,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -179,7 +179,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -302,6 +296,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -317,7 +317,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -995,7 +995,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1013,7 +1013,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1187,7 +1187,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1211,7 +1211,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1232,16 +1232,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1385,7 +1385,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8628,8 +8628,12 @@
       <c r="C436" t="n">
         <v>2000</v>
       </c>
-      <c r="D436"/>
-      <c r="E436"/>
+      <c r="D436" t="n">
+        <v>2.49329</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2.49329</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -8641,8 +8645,12 @@
       <c r="C437" t="n">
         <v>2001</v>
       </c>
-      <c r="D437"/>
-      <c r="E437"/>
+      <c r="D437" t="n">
+        <v>2.36669</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2.36669</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
@@ -8654,8 +8662,12 @@
       <c r="C438" t="n">
         <v>2002</v>
       </c>
-      <c r="D438"/>
-      <c r="E438"/>
+      <c r="D438" t="n">
+        <v>2.45063</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2.45063</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -8667,8 +8679,12 @@
       <c r="C439" t="n">
         <v>2003</v>
       </c>
-      <c r="D439"/>
-      <c r="E439"/>
+      <c r="D439" t="n">
+        <v>2.85997</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2.85997</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
@@ -8680,8 +8696,12 @@
       <c r="C440" t="n">
         <v>2004</v>
       </c>
-      <c r="D440"/>
-      <c r="E440"/>
+      <c r="D440" t="n">
+        <v>2.76059</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2.76059</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -8693,8 +8713,12 @@
       <c r="C441" t="n">
         <v>2005</v>
       </c>
-      <c r="D441"/>
-      <c r="E441"/>
+      <c r="D441" t="n">
+        <v>3.32616</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3.32616</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
@@ -8706,8 +8730,12 @@
       <c r="C442" t="n">
         <v>2006</v>
       </c>
-      <c r="D442"/>
-      <c r="E442"/>
+      <c r="D442" t="n">
+        <v>5.59144</v>
+      </c>
+      <c r="E442" t="n">
+        <v>5.59144</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -8720,10 +8748,10 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>9.55895</v>
+        <v>7.25094</v>
       </c>
       <c r="E443" t="n">
-        <v>9.55895</v>
+        <v>7.25094</v>
       </c>
     </row>
     <row r="444">
@@ -8737,9 +8765,11 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>9.293835</v>
-      </c>
-      <c r="E444"/>
+        <v>9.08014</v>
+      </c>
+      <c r="E444" t="n">
+        <v>9.08014</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -8752,10 +8782,10 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>9.02872</v>
+        <v>11.72333</v>
       </c>
       <c r="E445" t="n">
-        <v>9.02872</v>
+        <v>11.72333</v>
       </c>
     </row>
     <row r="446">
@@ -8769,10 +8799,10 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>8.35915</v>
+        <v>14.0676</v>
       </c>
       <c r="E446" t="n">
-        <v>8.35915</v>
+        <v>14.0676</v>
       </c>
     </row>
     <row r="447">
@@ -8786,9 +8816,11 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>6.41153</v>
-      </c>
-      <c r="E447"/>
+        <v>15.83411</v>
+      </c>
+      <c r="E447" t="n">
+        <v>15.83411</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -8800,12 +8832,8 @@
       <c r="C448" t="n">
         <v>2012</v>
       </c>
-      <c r="D448" t="n">
-        <v>4.46391</v>
-      </c>
-      <c r="E448" t="n">
-        <v>4.46391</v>
-      </c>
+      <c r="D448"/>
+      <c r="E448"/>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -8831,10 +8859,10 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>2.49329</v>
+        <v>4.6146</v>
       </c>
       <c r="E450" t="n">
-        <v>2.49329</v>
+        <v>4.6146</v>
       </c>
     </row>
     <row r="451">
@@ -8848,10 +8876,10 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>2.36669</v>
+        <v>4.62893</v>
       </c>
       <c r="E451" t="n">
-        <v>2.36669</v>
+        <v>4.62893</v>
       </c>
     </row>
     <row r="452">
@@ -8865,10 +8893,10 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>2.45063</v>
+        <v>5.05544</v>
       </c>
       <c r="E452" t="n">
-        <v>2.45063</v>
+        <v>5.05544</v>
       </c>
     </row>
     <row r="453">
@@ -8882,10 +8910,10 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>2.85997</v>
+        <v>5.08996</v>
       </c>
       <c r="E453" t="n">
-        <v>2.85997</v>
+        <v>5.08996</v>
       </c>
     </row>
     <row r="454">
@@ -8899,10 +8927,10 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>2.76059</v>
+        <v>5.05736</v>
       </c>
       <c r="E454" t="n">
-        <v>2.76059</v>
+        <v>5.05736</v>
       </c>
     </row>
     <row r="455">
@@ -8916,10 +8944,10 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>3.32616</v>
+        <v>5.80576</v>
       </c>
       <c r="E455" t="n">
-        <v>3.32616</v>
+        <v>5.80576</v>
       </c>
     </row>
     <row r="456">
@@ -8933,10 +8961,10 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>5.59144</v>
+        <v>6.75413</v>
       </c>
       <c r="E456" t="n">
-        <v>5.59144</v>
+        <v>6.75413</v>
       </c>
     </row>
     <row r="457">
@@ -8950,10 +8978,10 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>7.25094</v>
+        <v>7.19805</v>
       </c>
       <c r="E457" t="n">
-        <v>7.25094</v>
+        <v>7.19805</v>
       </c>
     </row>
     <row r="458">
@@ -8967,10 +8995,10 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>9.08014</v>
+        <v>7.80835</v>
       </c>
       <c r="E458" t="n">
-        <v>9.08014</v>
+        <v>7.80835</v>
       </c>
     </row>
     <row r="459">
@@ -8984,10 +9012,10 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>11.72333</v>
+        <v>8.95189</v>
       </c>
       <c r="E459" t="n">
-        <v>11.72333</v>
+        <v>8.95189</v>
       </c>
     </row>
     <row r="460">
@@ -9001,10 +9029,10 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>14.0676</v>
+        <v>11.02242</v>
       </c>
       <c r="E460" t="n">
-        <v>14.0676</v>
+        <v>11.02242</v>
       </c>
     </row>
     <row r="461">
@@ -9018,10 +9046,10 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>15.83411</v>
+        <v>11.90675</v>
       </c>
       <c r="E461" t="n">
-        <v>15.83411</v>
+        <v>11.90675</v>
       </c>
     </row>
     <row r="462">
@@ -9061,10 +9089,10 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>4.6146</v>
+        <v>58.88373</v>
       </c>
       <c r="E464" t="n">
-        <v>4.6146</v>
+        <v>58.88373</v>
       </c>
     </row>
     <row r="465">
@@ -9077,12 +9105,8 @@
       <c r="C465" t="n">
         <v>2001</v>
       </c>
-      <c r="D465" t="n">
-        <v>4.62893</v>
-      </c>
-      <c r="E465" t="n">
-        <v>4.62893</v>
-      </c>
+      <c r="D465"/>
+      <c r="E465"/>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -9094,12 +9118,8 @@
       <c r="C466" t="n">
         <v>2002</v>
       </c>
-      <c r="D466" t="n">
-        <v>5.05544</v>
-      </c>
-      <c r="E466" t="n">
-        <v>5.05544</v>
-      </c>
+      <c r="D466"/>
+      <c r="E466"/>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -9111,12 +9131,8 @@
       <c r="C467" t="n">
         <v>2003</v>
       </c>
-      <c r="D467" t="n">
-        <v>5.08996</v>
-      </c>
-      <c r="E467" t="n">
-        <v>5.08996</v>
-      </c>
+      <c r="D467"/>
+      <c r="E467"/>
     </row>
     <row r="468">
       <c r="A468" t="s">
@@ -9128,12 +9144,8 @@
       <c r="C468" t="n">
         <v>2004</v>
       </c>
-      <c r="D468" t="n">
-        <v>5.05736</v>
-      </c>
-      <c r="E468" t="n">
-        <v>5.05736</v>
-      </c>
+      <c r="D468"/>
+      <c r="E468"/>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -9145,12 +9157,8 @@
       <c r="C469" t="n">
         <v>2005</v>
       </c>
-      <c r="D469" t="n">
-        <v>5.80576</v>
-      </c>
-      <c r="E469" t="n">
-        <v>5.80576</v>
-      </c>
+      <c r="D469"/>
+      <c r="E469"/>
     </row>
     <row r="470">
       <c r="A470" t="s">
@@ -9162,12 +9170,8 @@
       <c r="C470" t="n">
         <v>2006</v>
       </c>
-      <c r="D470" t="n">
-        <v>6.75413</v>
-      </c>
-      <c r="E470" t="n">
-        <v>6.75413</v>
-      </c>
+      <c r="D470"/>
+      <c r="E470"/>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -9179,12 +9183,8 @@
       <c r="C471" t="n">
         <v>2007</v>
       </c>
-      <c r="D471" t="n">
-        <v>7.19805</v>
-      </c>
-      <c r="E471" t="n">
-        <v>7.19805</v>
-      </c>
+      <c r="D471"/>
+      <c r="E471"/>
     </row>
     <row r="472">
       <c r="A472" t="s">
@@ -9196,12 +9196,8 @@
       <c r="C472" t="n">
         <v>2008</v>
       </c>
-      <c r="D472" t="n">
-        <v>7.80835</v>
-      </c>
-      <c r="E472" t="n">
-        <v>7.80835</v>
-      </c>
+      <c r="D472"/>
+      <c r="E472"/>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -9213,12 +9209,8 @@
       <c r="C473" t="n">
         <v>2009</v>
       </c>
-      <c r="D473" t="n">
-        <v>8.95189</v>
-      </c>
-      <c r="E473" t="n">
-        <v>8.95189</v>
-      </c>
+      <c r="D473"/>
+      <c r="E473"/>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -9230,12 +9222,8 @@
       <c r="C474" t="n">
         <v>2010</v>
       </c>
-      <c r="D474" t="n">
-        <v>11.02242</v>
-      </c>
-      <c r="E474" t="n">
-        <v>11.02242</v>
-      </c>
+      <c r="D474"/>
+      <c r="E474"/>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -9247,12 +9235,8 @@
       <c r="C475" t="n">
         <v>2011</v>
       </c>
-      <c r="D475" t="n">
-        <v>11.90675</v>
-      </c>
-      <c r="E475" t="n">
-        <v>11.90675</v>
-      </c>
+      <c r="D475"/>
+      <c r="E475"/>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -9291,10 +9275,10 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>58.88373</v>
+        <v>1.88196</v>
       </c>
       <c r="E478" t="n">
-        <v>58.88373</v>
+        <v>1.88196</v>
       </c>
     </row>
     <row r="479">
@@ -9307,8 +9291,12 @@
       <c r="C479" t="n">
         <v>2001</v>
       </c>
-      <c r="D479"/>
-      <c r="E479"/>
+      <c r="D479" t="n">
+        <v>1.60763</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1.60763</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -9320,8 +9308,12 @@
       <c r="C480" t="n">
         <v>2002</v>
       </c>
-      <c r="D480"/>
-      <c r="E480"/>
+      <c r="D480" t="n">
+        <v>3.87481</v>
+      </c>
+      <c r="E480" t="n">
+        <v>3.87481</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -9333,8 +9325,12 @@
       <c r="C481" t="n">
         <v>2003</v>
       </c>
-      <c r="D481"/>
-      <c r="E481"/>
+      <c r="D481" t="n">
+        <v>4.54182</v>
+      </c>
+      <c r="E481" t="n">
+        <v>4.54182</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
@@ -9346,8 +9342,12 @@
       <c r="C482" t="n">
         <v>2004</v>
       </c>
-      <c r="D482"/>
-      <c r="E482"/>
+      <c r="D482" t="n">
+        <v>5.98368</v>
+      </c>
+      <c r="E482" t="n">
+        <v>5.98368</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -9359,8 +9359,12 @@
       <c r="C483" t="n">
         <v>2005</v>
       </c>
-      <c r="D483"/>
-      <c r="E483"/>
+      <c r="D483" t="n">
+        <v>7.43982</v>
+      </c>
+      <c r="E483" t="n">
+        <v>7.43982</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
@@ -9372,8 +9376,12 @@
       <c r="C484" t="n">
         <v>2006</v>
       </c>
-      <c r="D484"/>
-      <c r="E484"/>
+      <c r="D484" t="n">
+        <v>8.4248</v>
+      </c>
+      <c r="E484" t="n">
+        <v>8.4248</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -9385,8 +9393,12 @@
       <c r="C485" t="n">
         <v>2007</v>
       </c>
-      <c r="D485"/>
-      <c r="E485"/>
+      <c r="D485" t="n">
+        <v>9.59665</v>
+      </c>
+      <c r="E485" t="n">
+        <v>9.59665</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -9398,8 +9410,12 @@
       <c r="C486" t="n">
         <v>2008</v>
       </c>
-      <c r="D486"/>
-      <c r="E486"/>
+      <c r="D486" t="n">
+        <v>11.95719</v>
+      </c>
+      <c r="E486" t="n">
+        <v>11.95719</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -9411,8 +9427,12 @@
       <c r="C487" t="n">
         <v>2009</v>
       </c>
-      <c r="D487"/>
-      <c r="E487"/>
+      <c r="D487" t="n">
+        <v>15.10609</v>
+      </c>
+      <c r="E487" t="n">
+        <v>15.10609</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
@@ -9424,8 +9444,12 @@
       <c r="C488" t="n">
         <v>2010</v>
       </c>
-      <c r="D488"/>
-      <c r="E488"/>
+      <c r="D488" t="n">
+        <v>17.97689</v>
+      </c>
+      <c r="E488" t="n">
+        <v>17.97689</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -9437,8 +9461,12 @@
       <c r="C489" t="n">
         <v>2011</v>
       </c>
-      <c r="D489"/>
-      <c r="E489"/>
+      <c r="D489" t="n">
+        <v>20.6206</v>
+      </c>
+      <c r="E489" t="n">
+        <v>20.6206</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
@@ -9450,8 +9478,12 @@
       <c r="C490" t="n">
         <v>2012</v>
       </c>
-      <c r="D490"/>
-      <c r="E490"/>
+      <c r="D490" t="n">
+        <v>20.60955</v>
+      </c>
+      <c r="E490" t="n">
+        <v>20.60955</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -9477,10 +9509,10 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>1.88196</v>
+        <v>1.86962</v>
       </c>
       <c r="E492" t="n">
-        <v>1.88196</v>
+        <v>1.86962</v>
       </c>
     </row>
     <row r="493">
@@ -9494,11 +9526,9 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>1.60763</v>
-      </c>
-      <c r="E493" t="n">
-        <v>1.60763</v>
-      </c>
+        <v>1.8310675</v>
+      </c>
+      <c r="E493"/>
     </row>
     <row r="494">
       <c r="A494" t="s">
@@ -9511,11 +9541,9 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>3.87481</v>
-      </c>
-      <c r="E494" t="n">
-        <v>3.87481</v>
-      </c>
+        <v>1.792515</v>
+      </c>
+      <c r="E494"/>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -9528,11 +9556,9 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>4.54182</v>
-      </c>
-      <c r="E495" t="n">
-        <v>4.54182</v>
-      </c>
+        <v>1.7539625</v>
+      </c>
+      <c r="E495"/>
     </row>
     <row r="496">
       <c r="A496" t="s">
@@ -9545,10 +9571,10 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>5.98368</v>
+        <v>1.71541</v>
       </c>
       <c r="E496" t="n">
-        <v>5.98368</v>
+        <v>1.71541</v>
       </c>
     </row>
     <row r="497">
@@ -9562,11 +9588,9 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>7.43982</v>
-      </c>
-      <c r="E497" t="n">
-        <v>7.43982</v>
-      </c>
+        <v>1.428405</v>
+      </c>
+      <c r="E497"/>
     </row>
     <row r="498">
       <c r="A498" t="s">
@@ -9579,10 +9603,10 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>8.4248</v>
+        <v>1.1414</v>
       </c>
       <c r="E498" t="n">
-        <v>8.4248</v>
+        <v>1.1414</v>
       </c>
     </row>
     <row r="499">
@@ -9596,11 +9620,9 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>9.59665</v>
-      </c>
-      <c r="E499" t="n">
-        <v>9.59665</v>
-      </c>
+        <v>1.72785</v>
+      </c>
+      <c r="E499"/>
     </row>
     <row r="500">
       <c r="A500" t="s">
@@ -9613,10 +9635,10 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>11.95719</v>
+        <v>2.3143</v>
       </c>
       <c r="E500" t="n">
-        <v>11.95719</v>
+        <v>2.3143</v>
       </c>
     </row>
     <row r="501">
@@ -9630,10 +9652,10 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>15.10609</v>
+        <v>2.49129</v>
       </c>
       <c r="E501" t="n">
-        <v>15.10609</v>
+        <v>2.49129</v>
       </c>
     </row>
     <row r="502">
@@ -9647,10 +9669,10 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>17.97689</v>
+        <v>2.61204</v>
       </c>
       <c r="E502" t="n">
-        <v>17.97689</v>
+        <v>2.61204</v>
       </c>
     </row>
     <row r="503">
@@ -9664,10 +9686,10 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>20.6206</v>
+        <v>3.05465</v>
       </c>
       <c r="E503" t="n">
-        <v>20.6206</v>
+        <v>3.05465</v>
       </c>
     </row>
     <row r="504">
@@ -9681,10 +9703,10 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>20.60955</v>
+        <v>2.84086</v>
       </c>
       <c r="E504" t="n">
-        <v>20.60955</v>
+        <v>2.84086</v>
       </c>
     </row>
     <row r="505">
@@ -9711,10 +9733,10 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>1.86962</v>
+        <v>21.25124</v>
       </c>
       <c r="E506" t="n">
-        <v>1.86962</v>
+        <v>21.25124</v>
       </c>
     </row>
     <row r="507">
@@ -9728,9 +9750,11 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>1.8310675</v>
-      </c>
-      <c r="E507"/>
+        <v>24.58858</v>
+      </c>
+      <c r="E507" t="n">
+        <v>24.58858</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -9743,9 +9767,11 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>1.792515</v>
-      </c>
-      <c r="E508"/>
+        <v>22.35085</v>
+      </c>
+      <c r="E508" t="n">
+        <v>22.35085</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -9758,9 +9784,11 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>1.7539625</v>
-      </c>
-      <c r="E509"/>
+        <v>23.27515</v>
+      </c>
+      <c r="E509" t="n">
+        <v>23.27515</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -9773,11 +9801,9 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>1.71541</v>
-      </c>
-      <c r="E510" t="n">
-        <v>1.71541</v>
-      </c>
+        <v>22.3596333333</v>
+      </c>
+      <c r="E510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -9790,7 +9816,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>1.428405</v>
+        <v>21.4441166667</v>
       </c>
       <c r="E511"/>
     </row>
@@ -9805,10 +9831,10 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>1.1414</v>
+        <v>20.5286</v>
       </c>
       <c r="E512" t="n">
-        <v>1.1414</v>
+        <v>20.5286</v>
       </c>
     </row>
     <row r="513">
@@ -9822,9 +9848,11 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>1.72785</v>
-      </c>
-      <c r="E513"/>
+        <v>21.47513</v>
+      </c>
+      <c r="E513" t="n">
+        <v>21.47513</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -9837,10 +9865,10 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>2.3143</v>
+        <v>29.45736</v>
       </c>
       <c r="E514" t="n">
-        <v>2.3143</v>
+        <v>29.45736</v>
       </c>
     </row>
     <row r="515">
@@ -9853,12 +9881,8 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>2.49129</v>
-      </c>
-      <c r="E515" t="n">
-        <v>2.49129</v>
-      </c>
+      <c r="D515"/>
+      <c r="E515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -9870,12 +9894,8 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>2.61204</v>
-      </c>
-      <c r="E516" t="n">
-        <v>2.61204</v>
-      </c>
+      <c r="D516"/>
+      <c r="E516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -9887,12 +9907,8 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>3.05465</v>
-      </c>
-      <c r="E517" t="n">
-        <v>3.05465</v>
-      </c>
+      <c r="D517"/>
+      <c r="E517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -9904,12 +9920,8 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>2.84086</v>
-      </c>
-      <c r="E518" t="n">
-        <v>2.84086</v>
-      </c>
+      <c r="D518"/>
+      <c r="E518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -9935,10 +9947,10 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>21.25124</v>
+        <v>0.83114</v>
       </c>
       <c r="E520" t="n">
-        <v>21.25124</v>
+        <v>0.83114</v>
       </c>
     </row>
     <row r="521">
@@ -9952,10 +9964,10 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>24.58858</v>
+        <v>0.82524</v>
       </c>
       <c r="E521" t="n">
-        <v>24.58858</v>
+        <v>0.82524</v>
       </c>
     </row>
     <row r="522">
@@ -9969,11 +9981,9 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>22.35085</v>
-      </c>
-      <c r="E522" t="n">
-        <v>22.35085</v>
-      </c>
+        <v>0.873705</v>
+      </c>
+      <c r="E522"/>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9986,10 +9996,10 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>23.27515</v>
+        <v>0.92217</v>
       </c>
       <c r="E523" t="n">
-        <v>23.27515</v>
+        <v>0.92217</v>
       </c>
     </row>
     <row r="524">
@@ -10003,9 +10013,11 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>22.3596333333</v>
-      </c>
-      <c r="E524"/>
+        <v>1.20548</v>
+      </c>
+      <c r="E524" t="n">
+        <v>1.20548</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -10018,9 +10030,11 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>21.4441166667</v>
-      </c>
-      <c r="E525"/>
+        <v>1.41985</v>
+      </c>
+      <c r="E525" t="n">
+        <v>1.41985</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -10033,11 +10047,9 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>20.5286</v>
-      </c>
-      <c r="E526" t="n">
-        <v>20.5286</v>
-      </c>
+        <v>1.59787</v>
+      </c>
+      <c r="E526"/>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -10050,11 +10062,9 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>21.47513</v>
-      </c>
-      <c r="E527" t="n">
-        <v>21.47513</v>
-      </c>
+        <v>1.77589</v>
+      </c>
+      <c r="E527"/>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -10067,10 +10077,10 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>29.45736</v>
+        <v>1.95391</v>
       </c>
       <c r="E528" t="n">
-        <v>29.45736</v>
+        <v>1.95391</v>
       </c>
     </row>
     <row r="529">
@@ -10083,8 +10093,12 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
-      <c r="E529"/>
+      <c r="D529" t="n">
+        <v>2.02686</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2.02686</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -10096,8 +10110,12 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
-      <c r="E530"/>
+      <c r="D530" t="n">
+        <v>2.12218</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2.12218</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -10109,8 +10127,12 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
-      <c r="E531"/>
+      <c r="D531" t="n">
+        <v>2.25039</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2.25039</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -10149,10 +10171,10 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>0.83114</v>
+        <v>37.18506</v>
       </c>
       <c r="E534" t="n">
-        <v>0.83114</v>
+        <v>37.18506</v>
       </c>
     </row>
     <row r="535">
@@ -10166,11 +10188,9 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>0.82524</v>
-      </c>
-      <c r="E535" t="n">
-        <v>0.82524</v>
-      </c>
+        <v>38.77548</v>
+      </c>
+      <c r="E535"/>
     </row>
     <row r="536">
       <c r="A536" t="s">
@@ -10183,9 +10203,11 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>0.873705</v>
-      </c>
-      <c r="E536"/>
+        <v>40.3659</v>
+      </c>
+      <c r="E536" t="n">
+        <v>40.3659</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -10198,10 +10220,10 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>0.92217</v>
+        <v>42.71669</v>
       </c>
       <c r="E537" t="n">
-        <v>0.92217</v>
+        <v>42.71669</v>
       </c>
     </row>
     <row r="538">
@@ -10215,10 +10237,10 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>1.20548</v>
+        <v>42.67269</v>
       </c>
       <c r="E538" t="n">
-        <v>1.20548</v>
+        <v>42.67269</v>
       </c>
     </row>
     <row r="539">
@@ -10232,10 +10254,10 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>1.41985</v>
+        <v>47.66431</v>
       </c>
       <c r="E539" t="n">
-        <v>1.41985</v>
+        <v>47.66431</v>
       </c>
     </row>
     <row r="540">
@@ -10249,9 +10271,11 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>1.59787</v>
-      </c>
-      <c r="E540"/>
+        <v>46.5433</v>
+      </c>
+      <c r="E540" t="n">
+        <v>46.5433</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
@@ -10264,9 +10288,11 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>1.77589</v>
-      </c>
-      <c r="E541"/>
+        <v>52.11396</v>
+      </c>
+      <c r="E541" t="n">
+        <v>52.11396</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
@@ -10279,10 +10305,10 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>1.95391</v>
+        <v>54.85674</v>
       </c>
       <c r="E542" t="n">
-        <v>1.95391</v>
+        <v>54.85674</v>
       </c>
     </row>
     <row r="543">
@@ -10296,10 +10322,10 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>2.02686</v>
+        <v>59.0127</v>
       </c>
       <c r="E543" t="n">
-        <v>2.02686</v>
+        <v>59.0127</v>
       </c>
     </row>
     <row r="544">
@@ -10313,10 +10339,10 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>2.12218</v>
+        <v>65.93443</v>
       </c>
       <c r="E544" t="n">
-        <v>2.12218</v>
+        <v>65.93443</v>
       </c>
     </row>
     <row r="545">
@@ -10330,10 +10356,10 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>2.25039</v>
+        <v>70.51935</v>
       </c>
       <c r="E545" t="n">
-        <v>2.25039</v>
+        <v>70.51935</v>
       </c>
     </row>
     <row r="546">
@@ -10346,8 +10372,12 @@
       <c r="C546" t="n">
         <v>2012</v>
       </c>
-      <c r="D546"/>
-      <c r="E546"/>
+      <c r="D546" t="n">
+        <v>74.39199</v>
+      </c>
+      <c r="E546" t="n">
+        <v>74.39199</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -10373,10 +10403,10 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>37.18506</v>
+        <v>7.75683</v>
       </c>
       <c r="E548" t="n">
-        <v>37.18506</v>
+        <v>7.75683</v>
       </c>
     </row>
     <row r="549">
@@ -10390,9 +10420,11 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>38.77548</v>
-      </c>
-      <c r="E549"/>
+        <v>9.83335</v>
+      </c>
+      <c r="E549" t="n">
+        <v>9.83335</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -10405,10 +10437,10 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>40.3659</v>
+        <v>12.41981</v>
       </c>
       <c r="E550" t="n">
-        <v>40.3659</v>
+        <v>12.41981</v>
       </c>
     </row>
     <row r="551">
@@ -10422,10 +10454,10 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>42.71669</v>
+        <v>14.96737</v>
       </c>
       <c r="E551" t="n">
-        <v>42.71669</v>
+        <v>14.96737</v>
       </c>
     </row>
     <row r="552">
@@ -10439,10 +10471,10 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>42.67269</v>
+        <v>17.01648</v>
       </c>
       <c r="E552" t="n">
-        <v>42.67269</v>
+        <v>17.01648</v>
       </c>
     </row>
     <row r="553">
@@ -10456,10 +10488,10 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>47.66431</v>
+        <v>18.34087</v>
       </c>
       <c r="E553" t="n">
-        <v>47.66431</v>
+        <v>18.34087</v>
       </c>
     </row>
     <row r="554">
@@ -10473,10 +10505,10 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>46.5433</v>
+        <v>19.51878</v>
       </c>
       <c r="E554" t="n">
-        <v>46.5433</v>
+        <v>19.51878</v>
       </c>
     </row>
     <row r="555">
@@ -10490,10 +10522,10 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>52.11396</v>
+        <v>19.9669</v>
       </c>
       <c r="E555" t="n">
-        <v>52.11396</v>
+        <v>19.9669</v>
       </c>
     </row>
     <row r="556">
@@ -10507,10 +10539,10 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>54.85674</v>
+        <v>20.18727</v>
       </c>
       <c r="E556" t="n">
-        <v>54.85674</v>
+        <v>20.18727</v>
       </c>
     </row>
     <row r="557">
@@ -10524,10 +10556,10 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>59.0127</v>
+        <v>21.82372</v>
       </c>
       <c r="E557" t="n">
-        <v>59.0127</v>
+        <v>21.82372</v>
       </c>
     </row>
     <row r="558">
@@ -10541,10 +10573,10 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>65.93443</v>
+        <v>23.32153</v>
       </c>
       <c r="E558" t="n">
-        <v>65.93443</v>
+        <v>23.32153</v>
       </c>
     </row>
     <row r="559">
@@ -10558,10 +10590,10 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>70.51935</v>
+        <v>24.32841</v>
       </c>
       <c r="E559" t="n">
-        <v>70.51935</v>
+        <v>24.32841</v>
       </c>
     </row>
     <row r="560">
@@ -10575,10 +10607,10 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>74.39199</v>
+        <v>26.7</v>
       </c>
       <c r="E560" t="n">
-        <v>74.39199</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="561">
@@ -10605,10 +10637,10 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>7.75683</v>
+        <v>23.91613</v>
       </c>
       <c r="E562" t="n">
-        <v>7.75683</v>
+        <v>23.91613</v>
       </c>
     </row>
     <row r="563">
@@ -10622,10 +10654,10 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>9.83335</v>
+        <v>24.78947</v>
       </c>
       <c r="E563" t="n">
-        <v>9.83335</v>
+        <v>24.78947</v>
       </c>
     </row>
     <row r="564">
@@ -10639,10 +10671,10 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>12.41981</v>
+        <v>24.87423</v>
       </c>
       <c r="E564" t="n">
-        <v>12.41981</v>
+        <v>24.87423</v>
       </c>
     </row>
     <row r="565">
@@ -10656,10 +10688,10 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>14.96737</v>
+        <v>24.5713</v>
       </c>
       <c r="E565" t="n">
-        <v>14.96737</v>
+        <v>24.5713</v>
       </c>
     </row>
     <row r="566">
@@ -10673,10 +10705,10 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>17.01648</v>
+        <v>27.45562</v>
       </c>
       <c r="E566" t="n">
-        <v>17.01648</v>
+        <v>27.45562</v>
       </c>
     </row>
     <row r="567">
@@ -10690,10 +10722,10 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>18.34087</v>
+        <v>29.9112</v>
       </c>
       <c r="E567" t="n">
-        <v>18.34087</v>
+        <v>29.9112</v>
       </c>
     </row>
     <row r="568">
@@ -10707,10 +10739,10 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>19.51878</v>
+        <v>31.86716</v>
       </c>
       <c r="E568" t="n">
-        <v>19.51878</v>
+        <v>31.86716</v>
       </c>
     </row>
     <row r="569">
@@ -10724,10 +10756,10 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>19.9669</v>
+        <v>32.96354</v>
       </c>
       <c r="E569" t="n">
-        <v>19.9669</v>
+        <v>32.96354</v>
       </c>
     </row>
     <row r="570">
@@ -10741,10 +10773,10 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>20.18727</v>
+        <v>35.36916</v>
       </c>
       <c r="E570" t="n">
-        <v>20.18727</v>
+        <v>35.36916</v>
       </c>
     </row>
     <row r="571">
@@ -10758,10 +10790,10 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>21.82372</v>
+        <v>36.95747</v>
       </c>
       <c r="E571" t="n">
-        <v>21.82372</v>
+        <v>36.95747</v>
       </c>
     </row>
     <row r="572">
@@ -10775,10 +10807,10 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>23.32153</v>
+        <v>38.99175</v>
       </c>
       <c r="E572" t="n">
-        <v>23.32153</v>
+        <v>38.99175</v>
       </c>
     </row>
     <row r="573">
@@ -10792,10 +10824,10 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>24.32841</v>
+        <v>42.74132</v>
       </c>
       <c r="E573" t="n">
-        <v>24.32841</v>
+        <v>42.74132</v>
       </c>
     </row>
     <row r="574">
@@ -10809,10 +10841,10 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>26.7</v>
+        <v>45.01903</v>
       </c>
       <c r="E574" t="n">
-        <v>26.7</v>
+        <v>45.01903</v>
       </c>
     </row>
     <row r="575">
@@ -10839,10 +10871,10 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>23.91613</v>
+        <v>1.41838</v>
       </c>
       <c r="E576" t="n">
-        <v>23.91613</v>
+        <v>1.41838</v>
       </c>
     </row>
     <row r="577">
@@ -10856,11 +10888,9 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>24.78947</v>
-      </c>
-      <c r="E577" t="n">
-        <v>24.78947</v>
-      </c>
+        <v>1.94163</v>
+      </c>
+      <c r="E577"/>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -10873,11 +10903,9 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>24.87423</v>
-      </c>
-      <c r="E578" t="n">
-        <v>24.87423</v>
-      </c>
+        <v>2.46488</v>
+      </c>
+      <c r="E578"/>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -10890,10 +10918,10 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>24.5713</v>
+        <v>2.98813</v>
       </c>
       <c r="E579" t="n">
-        <v>24.5713</v>
+        <v>2.98813</v>
       </c>
     </row>
     <row r="580">
@@ -10907,10 +10935,10 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>27.45562</v>
+        <v>3.00913</v>
       </c>
       <c r="E580" t="n">
-        <v>27.45562</v>
+        <v>3.00913</v>
       </c>
     </row>
     <row r="581">
@@ -10924,11 +10952,9 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>29.9112</v>
-      </c>
-      <c r="E581" t="n">
-        <v>29.9112</v>
-      </c>
+        <v>3.4096533333</v>
+      </c>
+      <c r="E581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
@@ -10941,11 +10967,9 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>31.86716</v>
-      </c>
-      <c r="E582" t="n">
-        <v>31.86716</v>
-      </c>
+        <v>3.8101766667</v>
+      </c>
+      <c r="E582"/>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -10958,10 +10982,10 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>32.96354</v>
+        <v>4.2107</v>
       </c>
       <c r="E583" t="n">
-        <v>32.96354</v>
+        <v>4.2107</v>
       </c>
     </row>
     <row r="584">
@@ -10975,11 +10999,9 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>35.36916</v>
-      </c>
-      <c r="E584" t="n">
-        <v>35.36916</v>
-      </c>
+        <v>5.83855</v>
+      </c>
+      <c r="E584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -10992,10 +11014,10 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>36.95747</v>
+        <v>7.4664</v>
       </c>
       <c r="E585" t="n">
-        <v>36.95747</v>
+        <v>7.4664</v>
       </c>
     </row>
     <row r="586">
@@ -11009,10 +11031,10 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>38.99175</v>
+        <v>8.27455</v>
       </c>
       <c r="E586" t="n">
-        <v>38.99175</v>
+        <v>8.27455</v>
       </c>
     </row>
     <row r="587">
@@ -11026,10 +11048,10 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>42.74132</v>
+        <v>10.11311</v>
       </c>
       <c r="E587" t="n">
-        <v>42.74132</v>
+        <v>10.11311</v>
       </c>
     </row>
     <row r="588">
@@ -11043,10 +11065,10 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>45.01903</v>
+        <v>11.42145</v>
       </c>
       <c r="E588" t="n">
-        <v>45.01903</v>
+        <v>11.42145</v>
       </c>
     </row>
     <row r="589">
@@ -11073,10 +11095,10 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>1.41838</v>
+        <v>5.22164</v>
       </c>
       <c r="E590" t="n">
-        <v>1.41838</v>
+        <v>5.22164</v>
       </c>
     </row>
     <row r="591">
@@ -11090,9 +11112,11 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>1.94163</v>
-      </c>
-      <c r="E591"/>
+        <v>4.36318</v>
+      </c>
+      <c r="E591" t="n">
+        <v>4.36318</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
@@ -11105,9 +11129,11 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>2.46488</v>
-      </c>
-      <c r="E592"/>
+        <v>3.88885</v>
+      </c>
+      <c r="E592" t="n">
+        <v>3.88885</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
@@ -11120,10 +11146,10 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>2.98813</v>
+        <v>3.88115</v>
       </c>
       <c r="E593" t="n">
-        <v>2.98813</v>
+        <v>3.88115</v>
       </c>
     </row>
     <row r="594">
@@ -11137,11 +11163,9 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>3.00913</v>
-      </c>
-      <c r="E594" t="n">
-        <v>3.00913</v>
-      </c>
+        <v>4.320955</v>
+      </c>
+      <c r="E594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -11154,7 +11178,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>3.4096533333</v>
+        <v>4.76076</v>
       </c>
       <c r="E595"/>
     </row>
@@ -11169,7 +11193,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>3.8101766667</v>
+        <v>5.200565</v>
       </c>
       <c r="E596"/>
     </row>
@@ -11184,11 +11208,9 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>4.2107</v>
-      </c>
-      <c r="E597" t="n">
-        <v>4.2107</v>
-      </c>
+        <v>5.64037</v>
+      </c>
+      <c r="E597"/>
     </row>
     <row r="598">
       <c r="A598" t="s">
@@ -11201,7 +11223,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>5.83855</v>
+        <v>6.080175</v>
       </c>
       <c r="E598"/>
     </row>
@@ -11216,10 +11238,10 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>7.4664</v>
+        <v>6.51998</v>
       </c>
       <c r="E599" t="n">
-        <v>7.4664</v>
+        <v>6.51998</v>
       </c>
     </row>
     <row r="600">
@@ -11233,11 +11255,9 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>8.27455</v>
-      </c>
-      <c r="E600" t="n">
-        <v>8.27455</v>
-      </c>
+        <v>7.792305</v>
+      </c>
+      <c r="E600"/>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -11250,10 +11270,10 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>10.11311</v>
+        <v>9.06463</v>
       </c>
       <c r="E601" t="n">
-        <v>10.11311</v>
+        <v>9.06463</v>
       </c>
     </row>
     <row r="602">
@@ -11267,10 +11287,10 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>11.42145</v>
+        <v>10.36444</v>
       </c>
       <c r="E602" t="n">
-        <v>11.42145</v>
+        <v>10.36444</v>
       </c>
     </row>
     <row r="603">
@@ -11296,12 +11316,8 @@
       <c r="C604" t="n">
         <v>2000</v>
       </c>
-      <c r="D604" t="n">
-        <v>5.22164</v>
-      </c>
-      <c r="E604" t="n">
-        <v>5.22164</v>
-      </c>
+      <c r="D604"/>
+      <c r="E604"/>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -11313,12 +11329,8 @@
       <c r="C605" t="n">
         <v>2001</v>
       </c>
-      <c r="D605" t="n">
-        <v>4.36318</v>
-      </c>
-      <c r="E605" t="n">
-        <v>4.36318</v>
-      </c>
+      <c r="D605"/>
+      <c r="E605"/>
     </row>
     <row r="606">
       <c r="A606" t="s">
@@ -11330,12 +11342,8 @@
       <c r="C606" t="n">
         <v>2002</v>
       </c>
-      <c r="D606" t="n">
-        <v>3.88885</v>
-      </c>
-      <c r="E606" t="n">
-        <v>3.88885</v>
-      </c>
+      <c r="D606"/>
+      <c r="E606"/>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -11347,12 +11355,8 @@
       <c r="C607" t="n">
         <v>2003</v>
       </c>
-      <c r="D607" t="n">
-        <v>3.88115</v>
-      </c>
-      <c r="E607" t="n">
-        <v>3.88115</v>
-      </c>
+      <c r="D607"/>
+      <c r="E607"/>
     </row>
     <row r="608">
       <c r="A608" t="s">
@@ -11365,9 +11369,11 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>4.320955</v>
-      </c>
-      <c r="E608"/>
+        <v>25.63912</v>
+      </c>
+      <c r="E608" t="n">
+        <v>25.63912</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
@@ -11380,9 +11386,11 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>4.76076</v>
-      </c>
-      <c r="E609"/>
+        <v>25.48399</v>
+      </c>
+      <c r="E609" t="n">
+        <v>25.48399</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
@@ -11395,7 +11403,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>5.200565</v>
+        <v>28.6450333333</v>
       </c>
       <c r="E610"/>
     </row>
@@ -11410,7 +11418,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>5.64037</v>
+        <v>31.8060766667</v>
       </c>
       <c r="E611"/>
     </row>
@@ -11425,7 +11433,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>6.080175</v>
+        <v>34.96712</v>
       </c>
       <c r="E612"/>
     </row>
@@ -11440,11 +11448,9 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>6.51998</v>
-      </c>
-      <c r="E613" t="n">
-        <v>6.51998</v>
-      </c>
+        <v>38.1281633333</v>
+      </c>
+      <c r="E613"/>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -11457,7 +11463,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>7.792305</v>
+        <v>41.2892066667</v>
       </c>
       <c r="E614"/>
     </row>
@@ -11472,10 +11478,10 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>9.06463</v>
+        <v>44.45025</v>
       </c>
       <c r="E615" t="n">
-        <v>9.06463</v>
+        <v>44.45025</v>
       </c>
     </row>
     <row r="616">
@@ -11489,10 +11495,10 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>10.36444</v>
+        <v>46.74096</v>
       </c>
       <c r="E616" t="n">
-        <v>10.36444</v>
+        <v>46.74096</v>
       </c>
     </row>
     <row r="617">
@@ -11570,12 +11576,8 @@
       <c r="C622" t="n">
         <v>2004</v>
       </c>
-      <c r="D622" t="n">
-        <v>25.63912</v>
-      </c>
-      <c r="E622" t="n">
-        <v>25.63912</v>
-      </c>
+      <c r="D622"/>
+      <c r="E622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -11587,12 +11589,8 @@
       <c r="C623" t="n">
         <v>2005</v>
       </c>
-      <c r="D623" t="n">
-        <v>25.48399</v>
-      </c>
-      <c r="E623" t="n">
-        <v>25.48399</v>
-      </c>
+      <c r="D623"/>
+      <c r="E623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -11604,9 +11602,7 @@
       <c r="C624" t="n">
         <v>2006</v>
       </c>
-      <c r="D624" t="n">
-        <v>28.6450333333</v>
-      </c>
+      <c r="D624"/>
       <c r="E624"/>
     </row>
     <row r="625">
@@ -11620,9 +11616,11 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>31.8060766667</v>
-      </c>
-      <c r="E625"/>
+        <v>9.55895</v>
+      </c>
+      <c r="E625" t="n">
+        <v>9.55895</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -11635,7 +11633,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>34.96712</v>
+        <v>9.293835</v>
       </c>
       <c r="E626"/>
     </row>
@@ -11650,9 +11648,11 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>38.1281633333</v>
-      </c>
-      <c r="E627"/>
+        <v>9.02872</v>
+      </c>
+      <c r="E627" t="n">
+        <v>9.02872</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -11665,9 +11665,11 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>41.2892066667</v>
-      </c>
-      <c r="E628"/>
+        <v>8.35915</v>
+      </c>
+      <c r="E628" t="n">
+        <v>8.35915</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
@@ -11680,11 +11682,9 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>44.45025</v>
-      </c>
-      <c r="E629" t="n">
-        <v>44.45025</v>
-      </c>
+        <v>6.41153</v>
+      </c>
+      <c r="E629"/>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -11697,10 +11697,10 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>46.74096</v>
+        <v>4.46391</v>
       </c>
       <c r="E630" t="n">
-        <v>46.74096</v>
+        <v>4.46391</v>
       </c>
     </row>
     <row r="631">
@@ -44747,10 +44747,10 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>48.72779</v>
+        <v>58.08684</v>
       </c>
       <c r="E2802" t="n">
-        <v>48.72779</v>
+        <v>58.08684</v>
       </c>
     </row>
     <row r="2803">
@@ -44764,10 +44764,10 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>51.97728</v>
+        <v>58.87527</v>
       </c>
       <c r="E2803" t="n">
-        <v>51.97728</v>
+        <v>58.87527</v>
       </c>
     </row>
     <row r="2804">
@@ -44781,10 +44781,10 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>56.47875</v>
+        <v>62.15572</v>
       </c>
       <c r="E2804" t="n">
-        <v>56.47875</v>
+        <v>62.15572</v>
       </c>
     </row>
     <row r="2805">
@@ -44798,10 +44798,10 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>60.49191</v>
+        <v>61.65748</v>
       </c>
       <c r="E2805" t="n">
-        <v>60.49191</v>
+        <v>61.65748</v>
       </c>
     </row>
     <row r="2806">
@@ -44815,10 +44815,10 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>64.85601</v>
+        <v>58.98261</v>
       </c>
       <c r="E2806" t="n">
-        <v>64.85601</v>
+        <v>58.98261</v>
       </c>
     </row>
     <row r="2807">
@@ -44832,10 +44832,10 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>68.66693</v>
+        <v>58.6846</v>
       </c>
       <c r="E2807" t="n">
-        <v>68.66693</v>
+        <v>58.6846</v>
       </c>
     </row>
     <row r="2808">
@@ -44849,10 +44849,10 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>72.7671</v>
+        <v>58.91687</v>
       </c>
       <c r="E2808" t="n">
-        <v>72.7671</v>
+        <v>58.91687</v>
       </c>
     </row>
     <row r="2809">
@@ -44866,10 +44866,10 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>75.44396</v>
+        <v>58.68982</v>
       </c>
       <c r="E2809" t="n">
-        <v>75.44396</v>
+        <v>58.68982</v>
       </c>
     </row>
     <row r="2810">
@@ -44883,10 +44883,10 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>77.34882</v>
+        <v>57.24696</v>
       </c>
       <c r="E2810" t="n">
-        <v>77.34882</v>
+        <v>57.24696</v>
       </c>
     </row>
     <row r="2811">
@@ -44900,10 +44900,10 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>78.01468</v>
+        <v>58.99213</v>
       </c>
       <c r="E2811" t="n">
-        <v>78.01468</v>
+        <v>58.99213</v>
       </c>
     </row>
     <row r="2812">
@@ -44917,10 +44917,10 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>76.65549</v>
+        <v>60.50796</v>
       </c>
       <c r="E2812" t="n">
-        <v>76.65549</v>
+        <v>60.50796</v>
       </c>
     </row>
     <row r="2813">
@@ -44934,10 +44934,10 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>79.24941</v>
+        <v>61.16683</v>
       </c>
       <c r="E2813" t="n">
-        <v>79.24941</v>
+        <v>61.16683</v>
       </c>
     </row>
     <row r="2814">
@@ -44951,10 +44951,10 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>79.70165</v>
+        <v>61.88096</v>
       </c>
       <c r="E2814" t="n">
-        <v>79.70165</v>
+        <v>61.88096</v>
       </c>
     </row>
     <row r="2815">
@@ -44981,10 +44981,10 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>58.08684</v>
+        <v>48.72779</v>
       </c>
       <c r="E2816" t="n">
-        <v>58.08684</v>
+        <v>48.72779</v>
       </c>
     </row>
     <row r="2817">
@@ -44998,10 +44998,10 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>58.87527</v>
+        <v>51.97728</v>
       </c>
       <c r="E2817" t="n">
-        <v>58.87527</v>
+        <v>51.97728</v>
       </c>
     </row>
     <row r="2818">
@@ -45015,10 +45015,10 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>62.15572</v>
+        <v>56.47875</v>
       </c>
       <c r="E2818" t="n">
-        <v>62.15572</v>
+        <v>56.47875</v>
       </c>
     </row>
     <row r="2819">
@@ -45032,10 +45032,10 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>61.65748</v>
+        <v>60.49191</v>
       </c>
       <c r="E2819" t="n">
-        <v>61.65748</v>
+        <v>60.49191</v>
       </c>
     </row>
     <row r="2820">
@@ -45049,10 +45049,10 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>58.98261</v>
+        <v>64.85601</v>
       </c>
       <c r="E2820" t="n">
-        <v>58.98261</v>
+        <v>64.85601</v>
       </c>
     </row>
     <row r="2821">
@@ -45066,10 +45066,10 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>58.6846</v>
+        <v>68.66693</v>
       </c>
       <c r="E2821" t="n">
-        <v>58.6846</v>
+        <v>68.66693</v>
       </c>
     </row>
     <row r="2822">
@@ -45083,10 +45083,10 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>58.91687</v>
+        <v>72.7671</v>
       </c>
       <c r="E2822" t="n">
-        <v>58.91687</v>
+        <v>72.7671</v>
       </c>
     </row>
     <row r="2823">
@@ -45100,10 +45100,10 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>58.68982</v>
+        <v>75.44396</v>
       </c>
       <c r="E2823" t="n">
-        <v>58.68982</v>
+        <v>75.44396</v>
       </c>
     </row>
     <row r="2824">
@@ -45117,10 +45117,10 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>57.24696</v>
+        <v>77.34882</v>
       </c>
       <c r="E2824" t="n">
-        <v>57.24696</v>
+        <v>77.34882</v>
       </c>
     </row>
     <row r="2825">
@@ -45134,10 +45134,10 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>58.99213</v>
+        <v>78.01468</v>
       </c>
       <c r="E2825" t="n">
-        <v>58.99213</v>
+        <v>78.01468</v>
       </c>
     </row>
     <row r="2826">
@@ -45151,10 +45151,10 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>60.50796</v>
+        <v>76.65549</v>
       </c>
       <c r="E2826" t="n">
-        <v>60.50796</v>
+        <v>76.65549</v>
       </c>
     </row>
     <row r="2827">
@@ -45168,10 +45168,10 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>61.16683</v>
+        <v>79.24941</v>
       </c>
       <c r="E2827" t="n">
-        <v>61.16683</v>
+        <v>79.24941</v>
       </c>
     </row>
     <row r="2828">
@@ -45185,10 +45185,10 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>61.88096</v>
+        <v>79.70165</v>
       </c>
       <c r="E2828" t="n">
-        <v>61.88096</v>
+        <v>79.70165</v>
       </c>
     </row>
     <row r="2829">
@@ -48667,31 +48667,43 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="C33" t="n">
+        <v>2.49329</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.36669</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.45063</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.85997</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.76059</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.32616</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.59144</v>
+      </c>
       <c r="J33" t="n">
-        <v>9.55895</v>
+        <v>7.25094</v>
       </c>
       <c r="K33" t="n">
-        <v>9.293835</v>
+        <v>9.08014</v>
       </c>
       <c r="L33" t="n">
-        <v>9.02872</v>
+        <v>11.72333</v>
       </c>
       <c r="M33" t="n">
-        <v>8.35915</v>
+        <v>14.0676</v>
       </c>
       <c r="N33" t="n">
-        <v>6.41153</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4.46391</v>
-      </c>
+        <v>15.83411</v>
+      </c>
+      <c r="O33"/>
       <c r="P33"/>
     </row>
     <row r="34">
@@ -48702,40 +48714,40 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>2.49329</v>
+        <v>4.6146</v>
       </c>
       <c r="D34" t="n">
-        <v>2.36669</v>
+        <v>4.62893</v>
       </c>
       <c r="E34" t="n">
-        <v>2.45063</v>
+        <v>5.05544</v>
       </c>
       <c r="F34" t="n">
-        <v>2.85997</v>
+        <v>5.08996</v>
       </c>
       <c r="G34" t="n">
-        <v>2.76059</v>
+        <v>5.05736</v>
       </c>
       <c r="H34" t="n">
-        <v>3.32616</v>
+        <v>5.80576</v>
       </c>
       <c r="I34" t="n">
-        <v>5.59144</v>
+        <v>6.75413</v>
       </c>
       <c r="J34" t="n">
-        <v>7.25094</v>
+        <v>7.19805</v>
       </c>
       <c r="K34" t="n">
-        <v>9.08014</v>
+        <v>7.80835</v>
       </c>
       <c r="L34" t="n">
-        <v>11.72333</v>
+        <v>8.95189</v>
       </c>
       <c r="M34" t="n">
-        <v>14.0676</v>
+        <v>11.02242</v>
       </c>
       <c r="N34" t="n">
-        <v>15.83411</v>
+        <v>11.90675</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -48748,41 +48760,19 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>4.6146</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.62893</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5.05544</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5.08996</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5.05736</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5.80576</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.75413</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.19805</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7.80835</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8.95189</v>
-      </c>
-      <c r="M35" t="n">
-        <v>11.02242</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11.90675</v>
-      </c>
+        <v>58.88373</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
@@ -48794,20 +48784,44 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>58.88373</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>1.88196</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.60763</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.87481</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.54182</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.98368</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.43982</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.4248</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9.59665</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.95719</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15.10609</v>
+      </c>
+      <c r="M36" t="n">
+        <v>17.97689</v>
+      </c>
+      <c r="N36" t="n">
+        <v>20.6206</v>
+      </c>
+      <c r="O36" t="n">
+        <v>20.60955</v>
+      </c>
       <c r="P36"/>
     </row>
     <row r="37">
@@ -48818,43 +48832,43 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>1.88196</v>
+        <v>1.86962</v>
       </c>
       <c r="D37" t="n">
-        <v>1.60763</v>
+        <v>1.8310675</v>
       </c>
       <c r="E37" t="n">
-        <v>3.87481</v>
+        <v>1.792515</v>
       </c>
       <c r="F37" t="n">
-        <v>4.54182</v>
+        <v>1.7539625</v>
       </c>
       <c r="G37" t="n">
-        <v>5.98368</v>
+        <v>1.71541</v>
       </c>
       <c r="H37" t="n">
-        <v>7.43982</v>
+        <v>1.428405</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4248</v>
+        <v>1.1414</v>
       </c>
       <c r="J37" t="n">
-        <v>9.59665</v>
+        <v>1.72785</v>
       </c>
       <c r="K37" t="n">
-        <v>11.95719</v>
+        <v>2.3143</v>
       </c>
       <c r="L37" t="n">
-        <v>15.10609</v>
+        <v>2.49129</v>
       </c>
       <c r="M37" t="n">
-        <v>17.97689</v>
+        <v>2.61204</v>
       </c>
       <c r="N37" t="n">
-        <v>20.6206</v>
+        <v>3.05465</v>
       </c>
       <c r="O37" t="n">
-        <v>20.60955</v>
+        <v>2.84086</v>
       </c>
       <c r="P37"/>
     </row>
@@ -48866,44 +48880,36 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>1.86962</v>
+        <v>21.25124</v>
       </c>
       <c r="D38" t="n">
-        <v>1.8310675</v>
+        <v>24.58858</v>
       </c>
       <c r="E38" t="n">
-        <v>1.792515</v>
+        <v>22.35085</v>
       </c>
       <c r="F38" t="n">
-        <v>1.7539625</v>
+        <v>23.27515</v>
       </c>
       <c r="G38" t="n">
-        <v>1.71541</v>
+        <v>22.3596333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1.428405</v>
+        <v>21.4441166667</v>
       </c>
       <c r="I38" t="n">
-        <v>1.1414</v>
+        <v>20.5286</v>
       </c>
       <c r="J38" t="n">
-        <v>1.72785</v>
+        <v>21.47513</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3143</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.49129</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2.61204</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.05465</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.84086</v>
-      </c>
+        <v>29.45736</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38"/>
     </row>
     <row r="39">
@@ -48914,35 +48920,41 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>21.25124</v>
+        <v>0.83114</v>
       </c>
       <c r="D39" t="n">
-        <v>24.58858</v>
+        <v>0.82524</v>
       </c>
       <c r="E39" t="n">
-        <v>22.35085</v>
+        <v>0.873705</v>
       </c>
       <c r="F39" t="n">
-        <v>23.27515</v>
+        <v>0.92217</v>
       </c>
       <c r="G39" t="n">
-        <v>22.3596333333</v>
+        <v>1.20548</v>
       </c>
       <c r="H39" t="n">
-        <v>21.4441166667</v>
+        <v>1.41985</v>
       </c>
       <c r="I39" t="n">
-        <v>20.5286</v>
+        <v>1.59787</v>
       </c>
       <c r="J39" t="n">
-        <v>21.47513</v>
+        <v>1.77589</v>
       </c>
       <c r="K39" t="n">
-        <v>29.45736</v>
-      </c>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+        <v>1.95391</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.02686</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.12218</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.25039</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
     </row>
@@ -48954,42 +48966,44 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>0.83114</v>
+        <v>37.18506</v>
       </c>
       <c r="D40" t="n">
-        <v>0.82524</v>
+        <v>38.77548</v>
       </c>
       <c r="E40" t="n">
-        <v>0.873705</v>
+        <v>40.3659</v>
       </c>
       <c r="F40" t="n">
-        <v>0.92217</v>
+        <v>42.71669</v>
       </c>
       <c r="G40" t="n">
-        <v>1.20548</v>
+        <v>42.67269</v>
       </c>
       <c r="H40" t="n">
-        <v>1.41985</v>
+        <v>47.66431</v>
       </c>
       <c r="I40" t="n">
-        <v>1.59787</v>
+        <v>46.5433</v>
       </c>
       <c r="J40" t="n">
-        <v>1.77589</v>
+        <v>52.11396</v>
       </c>
       <c r="K40" t="n">
-        <v>1.95391</v>
+        <v>54.85674</v>
       </c>
       <c r="L40" t="n">
-        <v>2.02686</v>
+        <v>59.0127</v>
       </c>
       <c r="M40" t="n">
-        <v>2.12218</v>
+        <v>65.93443</v>
       </c>
       <c r="N40" t="n">
-        <v>2.25039</v>
-      </c>
-      <c r="O40"/>
+        <v>70.51935</v>
+      </c>
+      <c r="O40" t="n">
+        <v>74.39199</v>
+      </c>
       <c r="P40"/>
     </row>
     <row r="41">
@@ -49000,43 +49014,43 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>37.18506</v>
+        <v>7.75683</v>
       </c>
       <c r="D41" t="n">
-        <v>38.77548</v>
+        <v>9.83335</v>
       </c>
       <c r="E41" t="n">
-        <v>40.3659</v>
+        <v>12.41981</v>
       </c>
       <c r="F41" t="n">
-        <v>42.71669</v>
+        <v>14.96737</v>
       </c>
       <c r="G41" t="n">
-        <v>42.67269</v>
+        <v>17.01648</v>
       </c>
       <c r="H41" t="n">
-        <v>47.66431</v>
+        <v>18.34087</v>
       </c>
       <c r="I41" t="n">
-        <v>46.5433</v>
+        <v>19.51878</v>
       </c>
       <c r="J41" t="n">
-        <v>52.11396</v>
+        <v>19.9669</v>
       </c>
       <c r="K41" t="n">
-        <v>54.85674</v>
+        <v>20.18727</v>
       </c>
       <c r="L41" t="n">
-        <v>59.0127</v>
+        <v>21.82372</v>
       </c>
       <c r="M41" t="n">
-        <v>65.93443</v>
+        <v>23.32153</v>
       </c>
       <c r="N41" t="n">
-        <v>70.51935</v>
+        <v>24.32841</v>
       </c>
       <c r="O41" t="n">
-        <v>74.39199</v>
+        <v>26.7</v>
       </c>
       <c r="P41"/>
     </row>
@@ -49048,43 +49062,43 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>7.75683</v>
+        <v>23.91613</v>
       </c>
       <c r="D42" t="n">
-        <v>9.83335</v>
+        <v>24.78947</v>
       </c>
       <c r="E42" t="n">
-        <v>12.41981</v>
+        <v>24.87423</v>
       </c>
       <c r="F42" t="n">
-        <v>14.96737</v>
+        <v>24.5713</v>
       </c>
       <c r="G42" t="n">
-        <v>17.01648</v>
+        <v>27.45562</v>
       </c>
       <c r="H42" t="n">
-        <v>18.34087</v>
+        <v>29.9112</v>
       </c>
       <c r="I42" t="n">
-        <v>19.51878</v>
+        <v>31.86716</v>
       </c>
       <c r="J42" t="n">
-        <v>19.9669</v>
+        <v>32.96354</v>
       </c>
       <c r="K42" t="n">
-        <v>20.18727</v>
+        <v>35.36916</v>
       </c>
       <c r="L42" t="n">
-        <v>21.82372</v>
+        <v>36.95747</v>
       </c>
       <c r="M42" t="n">
-        <v>23.32153</v>
+        <v>38.99175</v>
       </c>
       <c r="N42" t="n">
-        <v>24.32841</v>
+        <v>42.74132</v>
       </c>
       <c r="O42" t="n">
-        <v>26.7</v>
+        <v>45.01903</v>
       </c>
       <c r="P42"/>
     </row>
@@ -49096,43 +49110,43 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>23.91613</v>
+        <v>1.41838</v>
       </c>
       <c r="D43" t="n">
-        <v>24.78947</v>
+        <v>1.94163</v>
       </c>
       <c r="E43" t="n">
-        <v>24.87423</v>
+        <v>2.46488</v>
       </c>
       <c r="F43" t="n">
-        <v>24.5713</v>
+        <v>2.98813</v>
       </c>
       <c r="G43" t="n">
-        <v>27.45562</v>
+        <v>3.00913</v>
       </c>
       <c r="H43" t="n">
-        <v>29.9112</v>
+        <v>3.4096533333</v>
       </c>
       <c r="I43" t="n">
-        <v>31.86716</v>
+        <v>3.8101766667</v>
       </c>
       <c r="J43" t="n">
-        <v>32.96354</v>
+        <v>4.2107</v>
       </c>
       <c r="K43" t="n">
-        <v>35.36916</v>
+        <v>5.83855</v>
       </c>
       <c r="L43" t="n">
-        <v>36.95747</v>
+        <v>7.4664</v>
       </c>
       <c r="M43" t="n">
-        <v>38.99175</v>
+        <v>8.27455</v>
       </c>
       <c r="N43" t="n">
-        <v>42.74132</v>
+        <v>10.11311</v>
       </c>
       <c r="O43" t="n">
-        <v>45.01903</v>
+        <v>11.42145</v>
       </c>
       <c r="P43"/>
     </row>
@@ -49144,43 +49158,43 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>1.41838</v>
+        <v>5.22164</v>
       </c>
       <c r="D44" t="n">
-        <v>1.94163</v>
+        <v>4.36318</v>
       </c>
       <c r="E44" t="n">
-        <v>2.46488</v>
+        <v>3.88885</v>
       </c>
       <c r="F44" t="n">
-        <v>2.98813</v>
+        <v>3.88115</v>
       </c>
       <c r="G44" t="n">
-        <v>3.00913</v>
+        <v>4.320955</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4096533333</v>
+        <v>4.76076</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8101766667</v>
+        <v>5.200565</v>
       </c>
       <c r="J44" t="n">
-        <v>4.2107</v>
+        <v>5.64037</v>
       </c>
       <c r="K44" t="n">
-        <v>5.83855</v>
+        <v>6.080175</v>
       </c>
       <c r="L44" t="n">
-        <v>7.4664</v>
+        <v>6.51998</v>
       </c>
       <c r="M44" t="n">
-        <v>8.27455</v>
+        <v>7.792305</v>
       </c>
       <c r="N44" t="n">
-        <v>10.11311</v>
+        <v>9.06463</v>
       </c>
       <c r="O44" t="n">
-        <v>11.42145</v>
+        <v>10.36444</v>
       </c>
       <c r="P44"/>
     </row>
@@ -49191,44 +49205,36 @@
       <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="n">
-        <v>5.22164</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.36318</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.88885</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.88115</v>
-      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" t="n">
-        <v>4.320955</v>
+        <v>25.63912</v>
       </c>
       <c r="H45" t="n">
-        <v>4.76076</v>
+        <v>25.48399</v>
       </c>
       <c r="I45" t="n">
-        <v>5.200565</v>
+        <v>28.6450333333</v>
       </c>
       <c r="J45" t="n">
-        <v>5.64037</v>
+        <v>31.8060766667</v>
       </c>
       <c r="K45" t="n">
-        <v>6.080175</v>
+        <v>34.96712</v>
       </c>
       <c r="L45" t="n">
-        <v>6.51998</v>
+        <v>38.1281633333</v>
       </c>
       <c r="M45" t="n">
-        <v>7.792305</v>
+        <v>41.2892066667</v>
       </c>
       <c r="N45" t="n">
-        <v>9.06463</v>
+        <v>44.45025</v>
       </c>
       <c r="O45" t="n">
-        <v>10.36444</v>
+        <v>46.74096</v>
       </c>
       <c r="P45"/>
     </row>
@@ -49243,32 +49249,26 @@
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" t="n">
-        <v>25.63912</v>
-      </c>
-      <c r="H46" t="n">
-        <v>25.48399</v>
-      </c>
-      <c r="I46" t="n">
-        <v>28.6450333333</v>
-      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
       <c r="J46" t="n">
-        <v>31.8060766667</v>
+        <v>9.55895</v>
       </c>
       <c r="K46" t="n">
-        <v>34.96712</v>
+        <v>9.293835</v>
       </c>
       <c r="L46" t="n">
-        <v>38.1281633333</v>
+        <v>9.02872</v>
       </c>
       <c r="M46" t="n">
-        <v>41.2892066667</v>
+        <v>8.35915</v>
       </c>
       <c r="N46" t="n">
-        <v>44.45025</v>
+        <v>6.41153</v>
       </c>
       <c r="O46" t="n">
-        <v>46.74096</v>
+        <v>4.46391</v>
       </c>
       <c r="P46"/>
     </row>
@@ -55212,43 +55212,43 @@
         <v>406</v>
       </c>
       <c r="C202" t="n">
-        <v>48.72779</v>
+        <v>58.08684</v>
       </c>
       <c r="D202" t="n">
-        <v>51.97728</v>
+        <v>58.87527</v>
       </c>
       <c r="E202" t="n">
-        <v>56.47875</v>
+        <v>62.15572</v>
       </c>
       <c r="F202" t="n">
-        <v>60.49191</v>
+        <v>61.65748</v>
       </c>
       <c r="G202" t="n">
-        <v>64.85601</v>
+        <v>58.98261</v>
       </c>
       <c r="H202" t="n">
-        <v>68.66693</v>
+        <v>58.6846</v>
       </c>
       <c r="I202" t="n">
-        <v>72.7671</v>
+        <v>58.91687</v>
       </c>
       <c r="J202" t="n">
-        <v>75.44396</v>
+        <v>58.68982</v>
       </c>
       <c r="K202" t="n">
-        <v>77.34882</v>
+        <v>57.24696</v>
       </c>
       <c r="L202" t="n">
-        <v>78.01468</v>
+        <v>58.99213</v>
       </c>
       <c r="M202" t="n">
-        <v>76.65549</v>
+        <v>60.50796</v>
       </c>
       <c r="N202" t="n">
-        <v>79.24941</v>
+        <v>61.16683</v>
       </c>
       <c r="O202" t="n">
-        <v>79.70165</v>
+        <v>61.88096</v>
       </c>
       <c r="P202"/>
     </row>
@@ -55260,43 +55260,43 @@
         <v>408</v>
       </c>
       <c r="C203" t="n">
-        <v>58.08684</v>
+        <v>48.72779</v>
       </c>
       <c r="D203" t="n">
-        <v>58.87527</v>
+        <v>51.97728</v>
       </c>
       <c r="E203" t="n">
-        <v>62.15572</v>
+        <v>56.47875</v>
       </c>
       <c r="F203" t="n">
-        <v>61.65748</v>
+        <v>60.49191</v>
       </c>
       <c r="G203" t="n">
-        <v>58.98261</v>
+        <v>64.85601</v>
       </c>
       <c r="H203" t="n">
-        <v>58.6846</v>
+        <v>68.66693</v>
       </c>
       <c r="I203" t="n">
-        <v>58.91687</v>
+        <v>72.7671</v>
       </c>
       <c r="J203" t="n">
-        <v>58.68982</v>
+        <v>75.44396</v>
       </c>
       <c r="K203" t="n">
-        <v>57.24696</v>
+        <v>77.34882</v>
       </c>
       <c r="L203" t="n">
-        <v>58.99213</v>
+        <v>78.01468</v>
       </c>
       <c r="M203" t="n">
-        <v>60.50796</v>
+        <v>76.65549</v>
       </c>
       <c r="N203" t="n">
-        <v>61.16683</v>
+        <v>79.24941</v>
       </c>
       <c r="O203" t="n">
-        <v>61.88096</v>
+        <v>79.70165</v>
       </c>
       <c r="P203"/>
     </row>
@@ -56967,27 +56967,43 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="C33" t="n">
+        <v>2.49329</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.36669</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.45063</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.85997</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.76059</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.32616</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.59144</v>
+      </c>
       <c r="J33" t="n">
-        <v>9.55895</v>
-      </c>
-      <c r="K33"/>
+        <v>7.25094</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.08014</v>
+      </c>
       <c r="L33" t="n">
-        <v>9.02872</v>
+        <v>11.72333</v>
       </c>
       <c r="M33" t="n">
-        <v>8.35915</v>
-      </c>
-      <c r="N33"/>
-      <c r="O33" t="n">
-        <v>4.46391</v>
-      </c>
+        <v>14.0676</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15.83411</v>
+      </c>
+      <c r="O33"/>
       <c r="P33"/>
     </row>
     <row r="34">
@@ -56998,40 +57014,40 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>2.49329</v>
+        <v>4.6146</v>
       </c>
       <c r="D34" t="n">
-        <v>2.36669</v>
+        <v>4.62893</v>
       </c>
       <c r="E34" t="n">
-        <v>2.45063</v>
+        <v>5.05544</v>
       </c>
       <c r="F34" t="n">
-        <v>2.85997</v>
+        <v>5.08996</v>
       </c>
       <c r="G34" t="n">
-        <v>2.76059</v>
+        <v>5.05736</v>
       </c>
       <c r="H34" t="n">
-        <v>3.32616</v>
+        <v>5.80576</v>
       </c>
       <c r="I34" t="n">
-        <v>5.59144</v>
+        <v>6.75413</v>
       </c>
       <c r="J34" t="n">
-        <v>7.25094</v>
+        <v>7.19805</v>
       </c>
       <c r="K34" t="n">
-        <v>9.08014</v>
+        <v>7.80835</v>
       </c>
       <c r="L34" t="n">
-        <v>11.72333</v>
+        <v>8.95189</v>
       </c>
       <c r="M34" t="n">
-        <v>14.0676</v>
+        <v>11.02242</v>
       </c>
       <c r="N34" t="n">
-        <v>15.83411</v>
+        <v>11.90675</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -57044,41 +57060,19 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>4.6146</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.62893</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5.05544</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5.08996</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5.05736</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5.80576</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.75413</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.19805</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7.80835</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8.95189</v>
-      </c>
-      <c r="M35" t="n">
-        <v>11.02242</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11.90675</v>
-      </c>
+        <v>58.88373</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
@@ -57090,20 +57084,44 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>58.88373</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>1.88196</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.60763</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.87481</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.54182</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.98368</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.43982</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.4248</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9.59665</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.95719</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15.10609</v>
+      </c>
+      <c r="M36" t="n">
+        <v>17.97689</v>
+      </c>
+      <c r="N36" t="n">
+        <v>20.6206</v>
+      </c>
+      <c r="O36" t="n">
+        <v>20.60955</v>
+      </c>
       <c r="P36"/>
     </row>
     <row r="37">
@@ -57114,43 +57132,33 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>1.88196</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.60763</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3.87481</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4.54182</v>
-      </c>
+        <v>1.86962</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="n">
-        <v>5.98368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7.43982</v>
-      </c>
+        <v>1.71541</v>
+      </c>
+      <c r="H37"/>
       <c r="I37" t="n">
-        <v>8.4248</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9.59665</v>
-      </c>
+        <v>1.1414</v>
+      </c>
+      <c r="J37"/>
       <c r="K37" t="n">
-        <v>11.95719</v>
+        <v>2.3143</v>
       </c>
       <c r="L37" t="n">
-        <v>15.10609</v>
+        <v>2.49129</v>
       </c>
       <c r="M37" t="n">
-        <v>17.97689</v>
+        <v>2.61204</v>
       </c>
       <c r="N37" t="n">
-        <v>20.6206</v>
+        <v>3.05465</v>
       </c>
       <c r="O37" t="n">
-        <v>20.60955</v>
+        <v>2.84086</v>
       </c>
       <c r="P37"/>
     </row>
@@ -57162,34 +57170,32 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>1.86962</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38" t="n">
-        <v>1.71541</v>
-      </c>
+        <v>21.25124</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24.58858</v>
+      </c>
+      <c r="E38" t="n">
+        <v>22.35085</v>
+      </c>
+      <c r="F38" t="n">
+        <v>23.27515</v>
+      </c>
+      <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="n">
-        <v>1.1414</v>
-      </c>
-      <c r="J38"/>
+        <v>20.5286</v>
+      </c>
+      <c r="J38" t="n">
+        <v>21.47513</v>
+      </c>
       <c r="K38" t="n">
-        <v>2.3143</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.49129</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2.61204</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.05465</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.84086</v>
-      </c>
+        <v>29.45736</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38"/>
     </row>
     <row r="39">
@@ -57200,31 +57206,35 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>21.25124</v>
+        <v>0.83114</v>
       </c>
       <c r="D39" t="n">
-        <v>24.58858</v>
-      </c>
-      <c r="E39" t="n">
-        <v>22.35085</v>
-      </c>
+        <v>0.82524</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" t="n">
-        <v>23.27515</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39" t="n">
-        <v>20.5286</v>
-      </c>
-      <c r="J39" t="n">
-        <v>21.47513</v>
-      </c>
+        <v>0.92217</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.20548</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.41985</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
       <c r="K39" t="n">
-        <v>29.45736</v>
-      </c>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+        <v>1.95391</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.02686</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.12218</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.25039</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
     </row>
@@ -57236,36 +57246,42 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>0.83114</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.82524</v>
-      </c>
-      <c r="E40"/>
+        <v>37.18506</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="n">
+        <v>40.3659</v>
+      </c>
       <c r="F40" t="n">
-        <v>0.92217</v>
+        <v>42.71669</v>
       </c>
       <c r="G40" t="n">
-        <v>1.20548</v>
+        <v>42.67269</v>
       </c>
       <c r="H40" t="n">
-        <v>1.41985</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40"/>
+        <v>47.66431</v>
+      </c>
+      <c r="I40" t="n">
+        <v>46.5433</v>
+      </c>
+      <c r="J40" t="n">
+        <v>52.11396</v>
+      </c>
       <c r="K40" t="n">
-        <v>1.95391</v>
+        <v>54.85674</v>
       </c>
       <c r="L40" t="n">
-        <v>2.02686</v>
+        <v>59.0127</v>
       </c>
       <c r="M40" t="n">
-        <v>2.12218</v>
+        <v>65.93443</v>
       </c>
       <c r="N40" t="n">
-        <v>2.25039</v>
-      </c>
-      <c r="O40"/>
+        <v>70.51935</v>
+      </c>
+      <c r="O40" t="n">
+        <v>74.39199</v>
+      </c>
       <c r="P40"/>
     </row>
     <row r="41">
@@ -57276,41 +57292,43 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>37.18506</v>
-      </c>
-      <c r="D41"/>
+        <v>7.75683</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.83335</v>
+      </c>
       <c r="E41" t="n">
-        <v>40.3659</v>
+        <v>12.41981</v>
       </c>
       <c r="F41" t="n">
-        <v>42.71669</v>
+        <v>14.96737</v>
       </c>
       <c r="G41" t="n">
-        <v>42.67269</v>
+        <v>17.01648</v>
       </c>
       <c r="H41" t="n">
-        <v>47.66431</v>
+        <v>18.34087</v>
       </c>
       <c r="I41" t="n">
-        <v>46.5433</v>
+        <v>19.51878</v>
       </c>
       <c r="J41" t="n">
-        <v>52.11396</v>
+        <v>19.9669</v>
       </c>
       <c r="K41" t="n">
-        <v>54.85674</v>
+        <v>20.18727</v>
       </c>
       <c r="L41" t="n">
-        <v>59.0127</v>
+        <v>21.82372</v>
       </c>
       <c r="M41" t="n">
-        <v>65.93443</v>
+        <v>23.32153</v>
       </c>
       <c r="N41" t="n">
-        <v>70.51935</v>
+        <v>24.32841</v>
       </c>
       <c r="O41" t="n">
-        <v>74.39199</v>
+        <v>26.7</v>
       </c>
       <c r="P41"/>
     </row>
@@ -57322,43 +57340,43 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>7.75683</v>
+        <v>23.91613</v>
       </c>
       <c r="D42" t="n">
-        <v>9.83335</v>
+        <v>24.78947</v>
       </c>
       <c r="E42" t="n">
-        <v>12.41981</v>
+        <v>24.87423</v>
       </c>
       <c r="F42" t="n">
-        <v>14.96737</v>
+        <v>24.5713</v>
       </c>
       <c r="G42" t="n">
-        <v>17.01648</v>
+        <v>27.45562</v>
       </c>
       <c r="H42" t="n">
-        <v>18.34087</v>
+        <v>29.9112</v>
       </c>
       <c r="I42" t="n">
-        <v>19.51878</v>
+        <v>31.86716</v>
       </c>
       <c r="J42" t="n">
-        <v>19.9669</v>
+        <v>32.96354</v>
       </c>
       <c r="K42" t="n">
-        <v>20.18727</v>
+        <v>35.36916</v>
       </c>
       <c r="L42" t="n">
-        <v>21.82372</v>
+        <v>36.95747</v>
       </c>
       <c r="M42" t="n">
-        <v>23.32153</v>
+        <v>38.99175</v>
       </c>
       <c r="N42" t="n">
-        <v>24.32841</v>
+        <v>42.74132</v>
       </c>
       <c r="O42" t="n">
-        <v>26.7</v>
+        <v>45.01903</v>
       </c>
       <c r="P42"/>
     </row>
@@ -57370,43 +57388,33 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>23.91613</v>
-      </c>
-      <c r="D43" t="n">
-        <v>24.78947</v>
-      </c>
-      <c r="E43" t="n">
-        <v>24.87423</v>
-      </c>
+        <v>1.41838</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="F43" t="n">
-        <v>24.5713</v>
+        <v>2.98813</v>
       </c>
       <c r="G43" t="n">
-        <v>27.45562</v>
-      </c>
-      <c r="H43" t="n">
-        <v>29.9112</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31.86716</v>
-      </c>
+        <v>3.00913</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>32.96354</v>
-      </c>
-      <c r="K43" t="n">
-        <v>35.36916</v>
-      </c>
+        <v>4.2107</v>
+      </c>
+      <c r="K43"/>
       <c r="L43" t="n">
-        <v>36.95747</v>
+        <v>7.4664</v>
       </c>
       <c r="M43" t="n">
-        <v>38.99175</v>
+        <v>8.27455</v>
       </c>
       <c r="N43" t="n">
-        <v>42.74132</v>
+        <v>10.11311</v>
       </c>
       <c r="O43" t="n">
-        <v>45.01903</v>
+        <v>11.42145</v>
       </c>
       <c r="P43"/>
     </row>
@@ -57418,33 +57426,31 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>1.41838</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
+        <v>5.22164</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.36318</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.88885</v>
+      </c>
       <c r="F44" t="n">
-        <v>2.98813</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.00913</v>
-      </c>
+        <v>3.88115</v>
+      </c>
+      <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>4.2107</v>
-      </c>
+      <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>7.4664</v>
-      </c>
-      <c r="M44" t="n">
-        <v>8.27455</v>
-      </c>
+        <v>6.51998</v>
+      </c>
+      <c r="M44"/>
       <c r="N44" t="n">
-        <v>10.11311</v>
+        <v>9.06463</v>
       </c>
       <c r="O44" t="n">
-        <v>11.42145</v>
+        <v>10.36444</v>
       </c>
       <c r="P44"/>
     </row>
@@ -57455,32 +57461,26 @@
       <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="n">
-        <v>5.22164</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.36318</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.88885</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.88115</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" t="n">
+        <v>25.63912</v>
+      </c>
+      <c r="H45" t="n">
+        <v>25.48399</v>
+      </c>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45" t="n">
-        <v>6.51998</v>
-      </c>
+      <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>9.06463</v>
+        <v>44.45025</v>
       </c>
       <c r="O45" t="n">
-        <v>10.36444</v>
+        <v>46.74096</v>
       </c>
       <c r="P45"/>
     </row>
@@ -57495,22 +57495,22 @@
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" t="n">
-        <v>25.63912</v>
-      </c>
-      <c r="H46" t="n">
-        <v>25.48399</v>
-      </c>
+      <c r="G46"/>
+      <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>9.55895</v>
+      </c>
       <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46" t="n">
-        <v>44.45025</v>
-      </c>
+      <c r="L46" t="n">
+        <v>9.02872</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.35915</v>
+      </c>
+      <c r="N46"/>
       <c r="O46" t="n">
-        <v>46.74096</v>
+        <v>4.46391</v>
       </c>
       <c r="P46"/>
     </row>
@@ -63220,43 +63220,43 @@
         <v>406</v>
       </c>
       <c r="C202" t="n">
-        <v>48.72779</v>
+        <v>58.08684</v>
       </c>
       <c r="D202" t="n">
-        <v>51.97728</v>
+        <v>58.87527</v>
       </c>
       <c r="E202" t="n">
-        <v>56.47875</v>
+        <v>62.15572</v>
       </c>
       <c r="F202" t="n">
-        <v>60.49191</v>
+        <v>61.65748</v>
       </c>
       <c r="G202" t="n">
-        <v>64.85601</v>
+        <v>58.98261</v>
       </c>
       <c r="H202" t="n">
-        <v>68.66693</v>
+        <v>58.6846</v>
       </c>
       <c r="I202" t="n">
-        <v>72.7671</v>
+        <v>58.91687</v>
       </c>
       <c r="J202" t="n">
-        <v>75.44396</v>
+        <v>58.68982</v>
       </c>
       <c r="K202" t="n">
-        <v>77.34882</v>
+        <v>57.24696</v>
       </c>
       <c r="L202" t="n">
-        <v>78.01468</v>
+        <v>58.99213</v>
       </c>
       <c r="M202" t="n">
-        <v>76.65549</v>
+        <v>60.50796</v>
       </c>
       <c r="N202" t="n">
-        <v>79.24941</v>
+        <v>61.16683</v>
       </c>
       <c r="O202" t="n">
-        <v>79.70165</v>
+        <v>61.88096</v>
       </c>
       <c r="P202"/>
     </row>
@@ -63268,43 +63268,43 @@
         <v>408</v>
       </c>
       <c r="C203" t="n">
-        <v>58.08684</v>
+        <v>48.72779</v>
       </c>
       <c r="D203" t="n">
-        <v>58.87527</v>
+        <v>51.97728</v>
       </c>
       <c r="E203" t="n">
-        <v>62.15572</v>
+        <v>56.47875</v>
       </c>
       <c r="F203" t="n">
-        <v>61.65748</v>
+        <v>60.49191</v>
       </c>
       <c r="G203" t="n">
-        <v>58.98261</v>
+        <v>64.85601</v>
       </c>
       <c r="H203" t="n">
-        <v>58.6846</v>
+        <v>68.66693</v>
       </c>
       <c r="I203" t="n">
-        <v>58.91687</v>
+        <v>72.7671</v>
       </c>
       <c r="J203" t="n">
-        <v>58.68982</v>
+        <v>75.44396</v>
       </c>
       <c r="K203" t="n">
-        <v>57.24696</v>
+        <v>77.34882</v>
       </c>
       <c r="L203" t="n">
-        <v>58.99213</v>
+        <v>78.01468</v>
       </c>
       <c r="M203" t="n">
-        <v>60.50796</v>
+        <v>76.65549</v>
       </c>
       <c r="N203" t="n">
-        <v>61.16683</v>
+        <v>79.24941</v>
       </c>
       <c r="O203" t="n">
-        <v>61.88096</v>
+        <v>79.70165</v>
       </c>
       <c r="P203"/>
     </row>
